--- a/data/organisation_alpha.xlsx
+++ b/data/organisation_alpha.xlsx
@@ -1,27 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8450044b23c22788/Projects/mt5000/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8450044b23c22788/Projects/ac584_ac579/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{E2DF9D7E-076D-E742-BFE8-36A15B649338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6900FF3D-2DC5-5941-9AAA-FCF70975484F}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="8_{E2DF9D7E-076D-E742-BFE8-36A15B649338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{86E47754-B92F-EB44-9B12-2C90B9635690}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="20120" windowHeight="8000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="list_employees_2020" sheetId="1" r:id="rId1"/>
-    <sheet name="salary_2017" sheetId="2" r:id="rId2"/>
+    <sheet name="list_employees_2022" sheetId="1" r:id="rId1"/>
+    <sheet name="salary_2020" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="807">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865" uniqueCount="806">
   <si>
     <t>first_name</t>
   </si>
@@ -47,39 +60,6 @@
     <t>job_title</t>
   </si>
   <si>
-    <t>salary_2018</t>
-  </si>
-  <si>
-    <t>salary_2019</t>
-  </si>
-  <si>
-    <t>q1</t>
-  </si>
-  <si>
-    <t>q2</t>
-  </si>
-  <si>
-    <t>q3</t>
-  </si>
-  <si>
-    <t>q4</t>
-  </si>
-  <si>
-    <t>q5</t>
-  </si>
-  <si>
-    <t>q6</t>
-  </si>
-  <si>
-    <t>q7</t>
-  </si>
-  <si>
-    <t>q8</t>
-  </si>
-  <si>
-    <t>q9</t>
-  </si>
-  <si>
     <t>Zared</t>
   </si>
   <si>
@@ -329,9 +309,6 @@
     <t>employee_code</t>
   </si>
   <si>
-    <t>salary_2017</t>
-  </si>
-  <si>
     <t>pvXJN</t>
   </si>
   <si>
@@ -2442,6 +2419,39 @@
   </si>
   <si>
     <t>bHlDL</t>
+  </si>
+  <si>
+    <t>salary_2022</t>
+  </si>
+  <si>
+    <t>salary_2021</t>
+  </si>
+  <si>
+    <t>salary_2020</t>
+  </si>
+  <si>
+    <t>sales_2022_q1</t>
+  </si>
+  <si>
+    <t>sales_2022_q2</t>
+  </si>
+  <si>
+    <t>sales_2022_q3</t>
+  </si>
+  <si>
+    <t>sales_2022_q4</t>
+  </si>
+  <si>
+    <t>sales_2021_q1</t>
+  </si>
+  <si>
+    <t>sales_2021_q2</t>
+  </si>
+  <si>
+    <t>sales_2021_q3</t>
+  </si>
+  <si>
+    <t>sales_2021_q4</t>
   </si>
 </sst>
 </file>
@@ -2986,10 +2996,14 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3027,9 +3041,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3062,26 +3076,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3114,26 +3111,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3307,20 +3287,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:S19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:T19"/>
+      <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="256" width="8.83203125" customWidth="1"/>
+    <col min="1" max="254" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -3347,66 +3327,63 @@
         <v>7</v>
       </c>
       <c r="J1" t="s">
+        <v>796</v>
+      </c>
+      <c r="K1" t="s">
+        <v>795</v>
+      </c>
+      <c r="L1" t="s">
+        <v>802</v>
+      </c>
+      <c r="M1" t="s">
+        <v>803</v>
+      </c>
+      <c r="N1" t="s">
+        <v>804</v>
+      </c>
+      <c r="O1" t="s">
+        <v>805</v>
+      </c>
+      <c r="P1" t="s">
+        <v>798</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>799</v>
+      </c>
+      <c r="R1" t="s">
+        <v>800</v>
+      </c>
+      <c r="S1" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E2" t="s">
         <v>11</v>
-      </c>
-      <c r="N1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>236</v>
-      </c>
-      <c r="B2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" t="s">
-        <v>22</v>
       </c>
       <c r="F2">
         <v>34</v>
       </c>
       <c r="G2" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="H2" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="I2" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="J2">
         <v>15085.37509</v>
@@ -3438,37 +3415,34 @@
       <c r="S2">
         <v>3</v>
       </c>
-      <c r="T2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>803</v>
+        <v>791</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F3">
         <v>40</v>
       </c>
       <c r="G3" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="I3" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="J3">
         <v>31207.270270000001</v>
@@ -3500,37 +3474,34 @@
       <c r="S3">
         <v>4</v>
       </c>
-      <c r="T3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>713</v>
+        <v>701</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="E4" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F4">
         <v>40</v>
       </c>
       <c r="G4" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="H4" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="I4" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="J4">
         <v>45548.54866</v>
@@ -3562,37 +3533,34 @@
       <c r="S4">
         <v>3</v>
       </c>
-      <c r="T4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>531</v>
+        <v>519</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F5">
         <v>57</v>
       </c>
       <c r="G5" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="H5" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="I5" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="J5">
         <v>9055.9819690000004</v>
@@ -3624,37 +3592,34 @@
       <c r="S5">
         <v>4</v>
       </c>
-      <c r="T5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>723</v>
+        <v>711</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F6">
         <v>34</v>
       </c>
       <c r="G6" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="H6" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="I6" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="J6">
         <v>17898.898130000001</v>
@@ -3686,37 +3651,34 @@
       <c r="S6">
         <v>4</v>
       </c>
-      <c r="T6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>547</v>
+        <v>535</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="C7" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="D7" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="E7" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F7">
         <v>24</v>
       </c>
       <c r="G7" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="H7" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="I7" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="J7">
         <v>48511.435369999999</v>
@@ -3748,37 +3710,34 @@
       <c r="S7">
         <v>4</v>
       </c>
-      <c r="T7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>804</v>
+        <v>792</v>
       </c>
       <c r="B8" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="D8" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="E8" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F8">
         <v>38</v>
       </c>
       <c r="G8" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="H8" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="I8" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="J8">
         <v>32299.75578</v>
@@ -3810,37 +3769,34 @@
       <c r="S8">
         <v>3</v>
       </c>
-      <c r="T8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>805</v>
+        <v>793</v>
       </c>
       <c r="B9" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="C9" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="D9" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="E9" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F9">
         <v>46</v>
       </c>
       <c r="G9" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="I9" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="J9">
         <v>27300.12644</v>
@@ -3872,37 +3828,34 @@
       <c r="S9">
         <v>3</v>
       </c>
-      <c r="T9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="B10" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="C10" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="D10" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="E10" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F10">
         <v>39</v>
       </c>
       <c r="G10" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="H10" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="I10" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="J10">
         <v>15086.9007</v>
@@ -3934,37 +3887,34 @@
       <c r="S10">
         <v>3</v>
       </c>
-      <c r="T10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="B11" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="C11" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="D11" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="E11" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F11">
         <v>60</v>
       </c>
       <c r="G11" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="H11" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="I11" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="J11">
         <v>26349.327089999999</v>
@@ -3996,37 +3946,34 @@
       <c r="S11">
         <v>3</v>
       </c>
-      <c r="T11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>806</v>
+        <v>794</v>
       </c>
       <c r="B12" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="C12" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="D12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="E12" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F12">
         <v>20</v>
       </c>
       <c r="G12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="H12" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="I12" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="J12">
         <v>41813.902750000001</v>
@@ -4058,37 +4005,34 @@
       <c r="S12">
         <v>3</v>
       </c>
-      <c r="T12">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>721</v>
+        <v>709</v>
       </c>
       <c r="B13" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="C13" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="D13" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="E13" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F13">
         <v>20</v>
       </c>
       <c r="G13" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="H13" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="I13" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="J13">
         <v>42300.10241</v>
@@ -4120,37 +4064,34 @@
       <c r="S13">
         <v>4</v>
       </c>
-      <c r="T13">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="B14" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="C14" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="D14" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="E14" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F14">
         <v>57</v>
       </c>
       <c r="G14" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="H14" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="I14" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="J14">
         <v>41482.906940000001</v>
@@ -4182,37 +4123,34 @@
       <c r="S14">
         <v>1</v>
       </c>
-      <c r="T14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>765</v>
+        <v>753</v>
       </c>
       <c r="B15" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="C15" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="D15" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="E15" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F15">
         <v>28</v>
       </c>
       <c r="G15" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="H15" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="I15" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="J15">
         <v>42742.048999999999</v>
@@ -4244,37 +4182,34 @@
       <c r="S15">
         <v>5</v>
       </c>
-      <c r="T15">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="B16" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="C16" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="D16" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="E16" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F16">
         <v>34</v>
       </c>
       <c r="G16" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="H16" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="I16" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="J16">
         <v>23090.606930000002</v>
@@ -4306,37 +4241,34 @@
       <c r="S16">
         <v>4</v>
       </c>
-      <c r="T16">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
       <c r="B17" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="C17" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="D17" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="E17" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F17">
         <v>28</v>
       </c>
       <c r="G17" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H17" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="I17" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="J17">
         <v>44651.651709999998</v>
@@ -4368,37 +4300,34 @@
       <c r="S17">
         <v>4</v>
       </c>
-      <c r="T17">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>504</v>
+        <v>492</v>
       </c>
       <c r="B18" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="C18" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="D18" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="E18" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F18">
         <v>58</v>
       </c>
       <c r="G18" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="H18" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="I18" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="J18">
         <v>33470.69846</v>
@@ -4430,37 +4359,34 @@
       <c r="S18">
         <v>4</v>
       </c>
-      <c r="T18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="B19" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C19" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="D19" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="E19" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F19">
         <v>56</v>
       </c>
       <c r="G19" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="H19" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="I19" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="J19">
         <v>37314.254930000003</v>
@@ -4490,9 +4416,6 @@
         <v>5</v>
       </c>
       <c r="S19">
-        <v>1</v>
-      </c>
-      <c r="T19">
         <v>1</v>
       </c>
     </row>
@@ -4505,8 +4428,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B701"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A65536"/>
+    <sheetView topLeftCell="A663" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4516,15 +4439,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="B1" t="s">
-        <v>102</v>
+        <v>797</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="B2">
         <v>42541.894224695599</v>
@@ -4532,7 +4455,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="B3">
         <v>30732.908655671199</v>
@@ -4540,7 +4463,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="B4">
         <v>32356.047117922401</v>
@@ -4548,7 +4471,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="B5">
         <v>18201.627394235798</v>
@@ -4556,7 +4479,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="B6">
         <v>43521.263700190699</v>
@@ -4564,7 +4487,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="B7">
         <v>17680.575495244</v>
@@ -4572,7 +4495,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="B8">
         <v>31705.2215497078</v>
@@ -4580,7 +4503,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="B9">
         <v>5693.3276512823704</v>
@@ -4588,7 +4511,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="B10">
         <v>38471.173288108301</v>
@@ -4596,7 +4519,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="B11">
         <v>40676.9366243146</v>
@@ -4604,7 +4527,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="B12">
         <v>30984.028992866901</v>
@@ -4612,7 +4535,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="B13">
         <v>25823.210623431401</v>
@@ -4620,7 +4543,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="B14">
         <v>17399.192213553601</v>
@@ -4628,7 +4551,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="B15">
         <v>21021.199586420498</v>
@@ -4636,7 +4559,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="B16">
         <v>38178.497476909099</v>
@@ -4644,7 +4567,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="B17">
         <v>41129.749800722697</v>
@@ -4652,7 +4575,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="B18">
         <v>27130.936682149899</v>
@@ -4660,7 +4583,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="B19">
         <v>21419.664904366</v>
@@ -4668,7 +4591,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="B20">
         <v>41720.778021468599</v>
@@ -4676,7 +4599,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="B21">
         <v>31081.944170644801</v>
@@ -4684,7 +4607,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="B22">
         <v>23410.423056093201</v>
@@ -4692,7 +4615,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="B23">
         <v>39358.928688551598</v>
@@ -4700,7 +4623,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="B24">
         <v>43473.254265458003</v>
@@ -4708,7 +4631,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="B25">
         <v>29802.493292057301</v>
@@ -4716,7 +4639,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="B26">
         <v>46121.297735019602</v>
@@ -4724,7 +4647,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="B27">
         <v>40011.6296299678</v>
@@ -4732,7 +4655,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="B28">
         <v>13351.079910844899</v>
@@ -4740,7 +4663,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="B29">
         <v>7586.5098772694701</v>
@@ -4748,7 +4671,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="B30">
         <v>29395.6793813156</v>
@@ -4756,7 +4679,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="B31">
         <v>10971.9737890134</v>
@@ -4764,7 +4687,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="B32">
         <v>45350.494606419597</v>
@@ -4772,7 +4695,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="B33">
         <v>39633.940377932202</v>
@@ -4780,7 +4703,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="B34">
         <v>27577.760901322399</v>
@@ -4788,7 +4711,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="B35">
         <v>31987.403277168502</v>
@@ -4796,7 +4719,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="B36">
         <v>26569.477219864999</v>
@@ -4804,7 +4727,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="B37">
         <v>29438.219948051901</v>
@@ -4812,7 +4735,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="B38">
         <v>31582.268552822399</v>
@@ -4820,7 +4743,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="B39">
         <v>8853.5893104996903</v>
@@ -4828,7 +4751,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="B40">
         <v>21387.531229500099</v>
@@ -4836,7 +4759,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="B41">
         <v>47994.746878967999</v>
@@ -4844,7 +4767,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="B42">
         <v>40976.430193170701</v>
@@ -4852,7 +4775,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="B43">
         <v>15522.3608281168</v>
@@ -4860,7 +4783,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="B44">
         <v>27807.09584563</v>
@@ -4868,7 +4791,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="B45">
         <v>31206.708470068501</v>
@@ -4876,7 +4799,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="B46">
         <v>27626.971093873999</v>
@@ -4884,7 +4807,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="B47">
         <v>42875.059010591598</v>
@@ -4892,7 +4815,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="B48">
         <v>29617.6375359546</v>
@@ -4900,7 +4823,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="B49">
         <v>31036.3740960922</v>
@@ -4908,7 +4831,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="B50">
         <v>10296.423737253601</v>
@@ -4916,7 +4839,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="B51">
         <v>30640.346729309</v>
@@ -4924,7 +4847,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="B52">
         <v>44756.115873048198</v>
@@ -4932,7 +4855,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="B53">
         <v>23654.695960707799</v>
@@ -4940,7 +4863,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="B54">
         <v>9146.1979500658799</v>
@@ -4948,7 +4871,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="B55">
         <v>25229.872420252101</v>
@@ -4956,7 +4879,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="B56">
         <v>44024.0614495259</v>
@@ -4964,7 +4887,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="B57">
         <v>12989.3353000279</v>
@@ -4972,7 +4895,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="B58">
         <v>43491.241965897098</v>
@@ -4980,7 +4903,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="B59">
         <v>47352.495704516798</v>
@@ -4988,7 +4911,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="B60">
         <v>43688.100462005001</v>
@@ -4996,7 +4919,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="B61">
         <v>31594.284168139398</v>
@@ -5004,7 +4927,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="B62">
         <v>29327.348696572801</v>
@@ -5012,7 +4935,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="B63">
         <v>18639.7163516207</v>
@@ -5020,7 +4943,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="B64">
         <v>26985.069093870399</v>
@@ -5028,7 +4951,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="B65">
         <v>18723.7750080564</v>
@@ -5036,7 +4959,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="B66">
         <v>43944.376143588503</v>
@@ -5044,7 +4967,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="B67">
         <v>31468.5939582438</v>
@@ -5052,7 +4975,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="B68">
         <v>42142.231371897797</v>
@@ -5060,7 +4983,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="B69">
         <v>31265.828246990299</v>
@@ -5068,7 +4991,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="B70">
         <v>48490.170871466296</v>
@@ -5076,7 +4999,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="B71">
         <v>31466.262967830498</v>
@@ -5084,7 +5007,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="B72">
         <v>46417.088023027798</v>
@@ -5092,7 +5015,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="B73">
         <v>43226.097927697803</v>
@@ -5100,7 +5023,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="B74">
         <v>43750.545612507398</v>
@@ -5108,7 +5031,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="B75">
         <v>17011.129846128701</v>
@@ -5116,7 +5039,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="B76">
         <v>17672.590649869198</v>
@@ -5124,7 +5047,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="B77">
         <v>28246.755698216901</v>
@@ -5132,7 +5055,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="B78">
         <v>31066.390542720499</v>
@@ -5140,7 +5063,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="B79">
         <v>26902.7069088344</v>
@@ -5148,7 +5071,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="B80">
         <v>44651.718390783702</v>
@@ -5156,7 +5079,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="B81">
         <v>8026.5524827036097</v>
@@ -5164,7 +5087,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="B82">
         <v>17195.671925192499</v>
@@ -5172,7 +5095,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="B83">
         <v>45485.019785493903</v>
@@ -5180,7 +5103,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="B84">
         <v>8349.9008015133495</v>
@@ -5188,7 +5111,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="B85">
         <v>31368.2203588927</v>
@@ -5196,7 +5119,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="B86">
         <v>47416.207322342503</v>
@@ -5204,7 +5127,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="B87">
         <v>22424.3851239295</v>
@@ -5212,7 +5135,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="B88">
         <v>10375.148753388799</v>
@@ -5220,7 +5143,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="B89">
         <v>25874.039610579399</v>
@@ -5228,7 +5151,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="B90">
         <v>9044.3724213036694</v>
@@ -5236,7 +5159,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="B91">
         <v>18086.783117283601</v>
@@ -5244,7 +5167,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="B92">
         <v>9827.68713922196</v>
@@ -5252,7 +5175,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="B93">
         <v>12294.4222396569</v>
@@ -5260,7 +5183,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="B94">
         <v>17936.883005602402</v>
@@ -5268,7 +5191,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="B95">
         <v>26064.0400653246</v>
@@ -5276,7 +5199,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="B96">
         <v>8779.0180599825308</v>
@@ -5284,7 +5207,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="B97">
         <v>38180.769301551001</v>
@@ -5292,7 +5215,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="B98">
         <v>42859.513550542499</v>
@@ -5300,7 +5223,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="B99">
         <v>49860.399026696599</v>
@@ -5308,7 +5231,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="B100">
         <v>43976.454319983</v>
@@ -5316,7 +5239,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="B101">
         <v>11409.295150163</v>
@@ -5324,7 +5247,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="B102">
         <v>31649.903303782601</v>
@@ -5332,7 +5255,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="B103">
         <v>29295.941056502801</v>
@@ -5340,7 +5263,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="B104">
         <v>38140.5841323735</v>
@@ -5348,7 +5271,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="B105">
         <v>28646.8181763881</v>
@@ -5356,7 +5279,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="B106">
         <v>48006.924005864101</v>
@@ -5364,7 +5287,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="B107">
         <v>43698.084055036503</v>
@@ -5372,7 +5295,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="B108">
         <v>32034.839363990599</v>
@@ -5380,7 +5303,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="B109">
         <v>46649.350934637099</v>
@@ -5388,7 +5311,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="B110">
         <v>43336.722532085798</v>
@@ -5396,7 +5319,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="B111">
         <v>23663.813202163299</v>
@@ -5404,7 +5327,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="B112">
         <v>31459.2922541345</v>
@@ -5412,7 +5335,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="B113">
         <v>28585.011325843901</v>
@@ -5420,7 +5343,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="B114">
         <v>16902.852026143199</v>
@@ -5428,7 +5351,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="B115">
         <v>29432.088283769299</v>
@@ -5436,7 +5359,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="B116">
         <v>30979.200399799702</v>
@@ -5444,7 +5367,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="B117">
         <v>13010.2269896692</v>
@@ -5452,7 +5375,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="B118">
         <v>17800.140436588099</v>
@@ -5460,7 +5383,7 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="B119">
         <v>6306.6518880406402</v>
@@ -5468,7 +5391,7 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="B120">
         <v>10683.702728174099</v>
@@ -5476,7 +5399,7 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="B121">
         <v>22889.23763417</v>
@@ -5484,7 +5407,7 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="B122">
         <v>45527.796291320497</v>
@@ -5492,7 +5415,7 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="B123">
         <v>45037.537761875101</v>
@@ -5500,7 +5423,7 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="B124">
         <v>21412.0071943191</v>
@@ -5508,7 +5431,7 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="B125">
         <v>31407.2611664789</v>
@@ -5516,7 +5439,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="B126">
         <v>31729.743553090801</v>
@@ -5524,7 +5447,7 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="B127">
         <v>12786.768658081301</v>
@@ -5532,7 +5455,7 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="B128">
         <v>21405.434812934</v>
@@ -5540,7 +5463,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="B129">
         <v>23018.903594605101</v>
@@ -5548,7 +5471,7 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="B130">
         <v>8487.5970296493397</v>
@@ -5556,7 +5479,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="B131">
         <v>10744.2359258177</v>
@@ -5564,7 +5487,7 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="B132">
         <v>20791.108381785099</v>
@@ -5572,7 +5495,7 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="B133">
         <v>30533.466570949699</v>
@@ -5580,7 +5503,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="B134">
         <v>28924.677382644601</v>
@@ -5588,7 +5511,7 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="B135">
         <v>30949.062941546999</v>
@@ -5596,7 +5519,7 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="B136">
         <v>44090.281799385601</v>
@@ -5604,7 +5527,7 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="B137">
         <v>8981.00892394115</v>
@@ -5612,7 +5535,7 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="B138">
         <v>27308.110322164099</v>
@@ -5620,7 +5543,7 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="B139">
         <v>24432.124652858402</v>
@@ -5628,7 +5551,7 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="B140">
         <v>27395.5802509245</v>
@@ -5636,7 +5559,7 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="B141">
         <v>9249.6196381200698</v>
@@ -5644,7 +5567,7 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="B142">
         <v>31426.891090854198</v>
@@ -5652,7 +5575,7 @@
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="B143">
         <v>49649.854362848098</v>
@@ -5660,7 +5583,7 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="B144">
         <v>22773.229800603302</v>
@@ -5668,7 +5591,7 @@
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="B145">
         <v>14777.1691519546</v>
@@ -5676,7 +5599,7 @@
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="B146">
         <v>27757.351313639301</v>
@@ -5684,7 +5607,7 @@
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="B147">
         <v>46394.414423457798</v>
@@ -5692,7 +5615,7 @@
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="B148">
         <v>44597.1112808869</v>
@@ -5700,7 +5623,7 @@
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="B149">
         <v>15338.956777739</v>
@@ -5708,7 +5631,7 @@
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="B150">
         <v>7113.7748374634502</v>
@@ -5716,7 +5639,7 @@
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="B151">
         <v>46778.8942123249</v>
@@ -5724,7 +5647,7 @@
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="B152">
         <v>41442.195516367297</v>
@@ -5732,7 +5655,7 @@
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="B153">
         <v>4894.3664969088304</v>
@@ -5740,7 +5663,7 @@
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="B154">
         <v>31643.889866862901</v>
@@ -5748,7 +5671,7 @@
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="B155">
         <v>28099.623839130101</v>
@@ -5756,7 +5679,7 @@
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="B156">
         <v>5622.7678047559803</v>
@@ -5764,7 +5687,7 @@
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="B157">
         <v>4924.4166117779796</v>
@@ -5772,7 +5695,7 @@
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="B158">
         <v>48841.476109640302</v>
@@ -5780,7 +5703,7 @@
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="B159">
         <v>25002.075377665598</v>
@@ -5788,7 +5711,7 @@
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="B160">
         <v>31320.451345302401</v>
@@ -5796,7 +5719,7 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="B161">
         <v>30143.290953892101</v>
@@ -5804,7 +5727,7 @@
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="B162">
         <v>16655.6185002167</v>
@@ -5812,7 +5735,7 @@
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="B163">
         <v>22544.693323564101</v>
@@ -5820,7 +5743,7 @@
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="B164">
         <v>25630.237611078901</v>
@@ -5828,7 +5751,7 @@
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="B165">
         <v>41024.9010512893</v>
@@ -5836,7 +5759,7 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="B166">
         <v>28767.886735913002</v>
@@ -5844,7 +5767,7 @@
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="B167">
         <v>43452.088656209802</v>
@@ -5852,7 +5775,7 @@
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="B168">
         <v>45208.413674321899</v>
@@ -5860,7 +5783,7 @@
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="B169">
         <v>40547.941215540501</v>
@@ -5868,7 +5791,7 @@
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="B170">
         <v>12616.9242837807</v>
@@ -5876,7 +5799,7 @@
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="B171">
         <v>28626.855934499999</v>
@@ -5884,7 +5807,7 @@
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="B172">
         <v>49246.105441438398</v>
@@ -5892,7 +5815,7 @@
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="B173">
         <v>43315.651500772903</v>
@@ -5900,7 +5823,7 @@
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="B174">
         <v>40885.8890097474</v>
@@ -5908,7 +5831,7 @@
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="B175">
         <v>48697.293747562202</v>
@@ -5916,7 +5839,7 @@
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="B176">
         <v>10232.5079573612</v>
@@ -5924,7 +5847,7 @@
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="B177">
         <v>47068.903203634502</v>
@@ -5932,7 +5855,7 @@
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="B178">
         <v>31542.387576539899</v>
@@ -5940,7 +5863,7 @@
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="B179">
         <v>28642.028524572801</v>
@@ -5948,7 +5871,7 @@
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="B180">
         <v>9137.4765743789794</v>
@@ -5956,7 +5879,7 @@
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="B181">
         <v>49350.305647185603</v>
@@ -5964,7 +5887,7 @@
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="B182">
         <v>29560.0575637697</v>
@@ -5972,7 +5895,7 @@
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="B183">
         <v>44423.935688490703</v>
@@ -5980,7 +5903,7 @@
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="B184">
         <v>45013.769011846001</v>
@@ -5988,7 +5911,7 @@
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="B185">
         <v>47620.2850160327</v>
@@ -5996,7 +5919,7 @@
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="B186">
         <v>40076.834197128301</v>
@@ -6004,7 +5927,7 @@
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="B187">
         <v>24635.130759720902</v>
@@ -6012,7 +5935,7 @@
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="B188">
         <v>43502.260044625698</v>
@@ -6020,7 +5943,7 @@
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="B189">
         <v>28650.439420757401</v>
@@ -6028,7 +5951,7 @@
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="B190">
         <v>21797.425973581299</v>
@@ -6036,7 +5959,7 @@
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="B191">
         <v>18622.963429699499</v>
@@ -6044,7 +5967,7 @@
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="B192">
         <v>41731.1694406596</v>
@@ -6052,7 +5975,7 @@
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="B193">
         <v>15955.118304539001</v>
@@ -6060,7 +5983,7 @@
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="B194">
         <v>24024.1981295554</v>
@@ -6068,7 +5991,7 @@
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="B195">
         <v>44877.782972358</v>
@@ -6076,7 +5999,7 @@
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="B196">
         <v>20216.837690471501</v>
@@ -6084,7 +6007,7 @@
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="B197">
         <v>46088.574619234001</v>
@@ -6092,7 +6015,7 @@
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="B198">
         <v>35029.713928142097</v>
@@ -6100,7 +6023,7 @@
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="B199">
         <v>46796.909912325202</v>
@@ -6108,7 +6031,7 @@
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="B200">
         <v>6118.8119351759096</v>
@@ -6116,7 +6039,7 @@
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="B201">
         <v>31074.250653324601</v>
@@ -6124,7 +6047,7 @@
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="B202">
         <v>40010.265363812003</v>
@@ -6132,7 +6055,7 @@
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="B203">
         <v>42687.533741569103</v>
@@ -6140,7 +6063,7 @@
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="B204">
         <v>40428.083812039302</v>
@@ -6148,7 +6071,7 @@
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="B205">
         <v>29840.1585679772</v>
@@ -6156,7 +6079,7 @@
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="B206">
         <v>30447.210158773702</v>
@@ -6164,7 +6087,7 @@
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="B207">
         <v>30178.158821802099</v>
@@ -6172,7 +6095,7 @@
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="B208">
         <v>43265.671549766099</v>
@@ -6180,7 +6103,7 @@
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
       <c r="B209">
         <v>27057.091925362602</v>
@@ -6188,7 +6111,7 @@
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="B210">
         <v>24051.084315027601</v>
@@ -6196,7 +6119,7 @@
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="B211">
         <v>39937.595458695898</v>
@@ -6204,7 +6127,7 @@
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="B212">
         <v>34935.180501607501</v>
@@ -6212,7 +6135,7 @@
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="B213">
         <v>27928.645463536101</v>
@@ -6220,7 +6143,7 @@
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="B214">
         <v>25373.716749593001</v>
@@ -6228,7 +6151,7 @@
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="B215">
         <v>31600.818801867499</v>
@@ -6236,7 +6159,7 @@
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="B216">
         <v>18355.3332392991</v>
@@ -6244,7 +6167,7 @@
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="B217">
         <v>31313.0293537367</v>
@@ -6252,7 +6175,7 @@
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="B218">
         <v>37579.098242496002</v>
@@ -6260,7 +6183,7 @@
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="B219">
         <v>47613.006967327499</v>
@@ -6268,7 +6191,7 @@
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="B220">
         <v>40442.243608751101</v>
@@ -6276,7 +6199,7 @@
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="B221">
         <v>23490.194100656201</v>
@@ -6284,7 +6207,7 @@
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="B222">
         <v>47094.753604186502</v>
@@ -6292,7 +6215,7 @@
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="B223">
         <v>26602.831104545901</v>
@@ -6300,7 +6223,7 @@
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="B224">
         <v>9218.2741336190993</v>
@@ -6308,7 +6231,7 @@
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="B225">
         <v>47708.543480738997</v>
@@ -6316,7 +6239,7 @@
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="B226">
         <v>25049.418219536401</v>
@@ -6324,7 +6247,7 @@
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="B227">
         <v>25467.9308501425</v>
@@ -6332,7 +6255,7 @@
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="B228">
         <v>38441.676860157299</v>
@@ -6340,7 +6263,7 @@
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="B229">
         <v>43884.595001686197</v>
@@ -6348,7 +6271,7 @@
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="B230">
         <v>14398.960248940701</v>
@@ -6356,7 +6279,7 @@
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="B231">
         <v>30529.7152280398</v>
@@ -6364,7 +6287,7 @@
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="B232">
         <v>41691.459044410498</v>
@@ -6372,7 +6295,7 @@
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="B233">
         <v>48353.194403780202</v>
@@ -6380,7 +6303,7 @@
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="B234">
         <v>29452.159396176201</v>
@@ -6388,7 +6311,7 @@
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="B235">
         <v>48700.182437580101</v>
@@ -6396,7 +6319,7 @@
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="B236">
         <v>10404.736885071199</v>
@@ -6404,7 +6327,7 @@
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="B237">
         <v>34077.219886546904</v>
@@ -6412,7 +6335,7 @@
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="B238">
         <v>27029.213145060799</v>
@@ -6420,7 +6343,7 @@
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="B239">
         <v>22181.581969213599</v>
@@ -6428,7 +6351,7 @@
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="B240">
         <v>48144.959514217997</v>
@@ -6436,7 +6359,7 @@
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="B241">
         <v>9349.4244183023493</v>
@@ -6444,7 +6367,7 @@
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="B242">
         <v>26126.201698318098</v>
@@ -6452,7 +6375,7 @@
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="B243">
         <v>44888.835795815197</v>
@@ -6460,7 +6383,7 @@
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="B244">
         <v>46302.634997780202</v>
@@ -6468,7 +6391,7 @@
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="B245">
         <v>25071.5885137406</v>
@@ -6476,7 +6399,7 @@
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="B246">
         <v>34281.775282337701</v>
@@ -6484,7 +6407,7 @@
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="B247">
         <v>28563.386429239101</v>
@@ -6492,7 +6415,7 @@
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="B248">
         <v>44249.816164244097</v>
@@ -6500,7 +6423,7 @@
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="B249">
         <v>29617.000608191502</v>
@@ -6508,7 +6431,7 @@
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="B250">
         <v>47682.708179141497</v>
@@ -6516,7 +6439,7 @@
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="B251">
         <v>23755.219446411698</v>
@@ -6524,7 +6447,7 @@
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="B252">
         <v>44391.1906740712</v>
@@ -6532,7 +6455,7 @@
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
       <c r="B253">
         <v>10967.1047807821</v>
@@ -6540,7 +6463,7 @@
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="B254">
         <v>7520.6881508121196</v>
@@ -6548,7 +6471,7 @@
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="B255">
         <v>40514.975522642497</v>
@@ -6556,7 +6479,7 @@
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="B256">
         <v>19309.359144306702</v>
@@ -6564,7 +6487,7 @@
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="B257">
         <v>36831.324489643499</v>
@@ -6572,7 +6495,7 @@
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="B258">
         <v>25751.892415087899</v>
@@ -6580,7 +6503,7 @@
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="B259">
         <v>29233.3213443114</v>
@@ -6588,7 +6511,7 @@
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="B260">
         <v>30940.7136904902</v>
@@ -6596,7 +6519,7 @@
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="B261">
         <v>17252.947546002099</v>
@@ -6604,7 +6527,7 @@
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="B262">
         <v>45618.424098334603</v>
@@ -6612,7 +6535,7 @@
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="B263">
         <v>26371.533353309402</v>
@@ -6620,7 +6543,7 @@
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="B264">
         <v>16424.035730805801</v>
@@ -6628,7 +6551,7 @@
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="B265">
         <v>41561.882402601499</v>
@@ -6636,7 +6559,7 @@
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="B266">
         <v>43549.660737156497</v>
@@ -6644,7 +6567,7 @@
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="B267">
         <v>11114.997055616001</v>
@@ -6652,7 +6575,7 @@
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="B268">
         <v>30160.119608138</v>
@@ -6660,7 +6583,7 @@
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="B269">
         <v>9645.9959123643694</v>
@@ -6668,7 +6591,7 @@
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="B270">
         <v>24079.707302708</v>
@@ -6676,7 +6599,7 @@
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="B271">
         <v>33142.3925499834</v>
@@ -6684,7 +6607,7 @@
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="B272">
         <v>32044.205520527401</v>
@@ -6692,7 +6615,7 @@
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="B273">
         <v>40597.1265291655</v>
@@ -6700,7 +6623,7 @@
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="B274">
         <v>46984.761044156898</v>
@@ -6708,7 +6631,7 @@
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="B275">
         <v>43586.385689919</v>
@@ -6716,7 +6639,7 @@
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="B276">
         <v>31592.115487122399</v>
@@ -6724,7 +6647,7 @@
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="B277">
         <v>31062.770499286798</v>
@@ -6732,7 +6655,7 @@
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
       <c r="B278">
         <v>43560.170712225197</v>
@@ -6740,7 +6663,7 @@
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="B279">
         <v>40547.805300744702</v>
@@ -6748,7 +6671,7 @@
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="B280">
         <v>28480.2291319467</v>
@@ -6756,7 +6679,7 @@
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="B281">
         <v>49544.323248389403</v>
@@ -6764,7 +6687,7 @@
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="B282">
         <v>29877.1425267909</v>
@@ -6772,7 +6695,7 @@
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="B283">
         <v>19526.778579238999</v>
@@ -6780,7 +6703,7 @@
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="B284">
         <v>29332.020599273001</v>
@@ -6788,7 +6711,7 @@
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="B285">
         <v>28450.541837980702</v>
@@ -6796,7 +6719,7 @@
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="B286">
         <v>22516.279128374001</v>
@@ -6804,7 +6727,7 @@
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="B287">
         <v>23892.768643764801</v>
@@ -6812,7 +6735,7 @@
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="B288">
         <v>31988.909532438</v>
@@ -6820,7 +6743,7 @@
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
       <c r="B289">
         <v>42226.173359314598</v>
@@ -6828,7 +6751,7 @@
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="B290">
         <v>15658.579121291599</v>
@@ -6836,7 +6759,7 @@
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>392</v>
+        <v>380</v>
       </c>
       <c r="B291">
         <v>31483.636169039699</v>
@@ -6844,7 +6767,7 @@
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
       <c r="B292">
         <v>38917.797339939898</v>
@@ -6852,7 +6775,7 @@
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>394</v>
+        <v>382</v>
       </c>
       <c r="B293">
         <v>16192.6315074463</v>
@@ -6860,7 +6783,7 @@
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="B294">
         <v>10233.722902178401</v>
@@ -6868,7 +6791,7 @@
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="B295">
         <v>39812.118179759498</v>
@@ -6876,7 +6799,7 @@
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="B296">
         <v>20536.9091078864</v>
@@ -6884,7 +6807,7 @@
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="B297">
         <v>40196.870784851497</v>
@@ -6892,7 +6815,7 @@
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="B298">
         <v>25509.9526041463</v>
@@ -6900,7 +6823,7 @@
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="B299">
         <v>20076.986890218399</v>
@@ -6908,7 +6831,7 @@
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
       <c r="B300">
         <v>26833.444236721702</v>
@@ -6916,7 +6839,7 @@
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="B301">
         <v>33703.7621054708</v>
@@ -6924,7 +6847,7 @@
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="B302">
         <v>47641.4458214482</v>
@@ -6932,7 +6855,7 @@
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="B303">
         <v>42711.723249616698</v>
@@ -6940,7 +6863,7 @@
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="B304">
         <v>17147.047022872201</v>
@@ -6948,7 +6871,7 @@
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
-        <v>406</v>
+        <v>394</v>
       </c>
       <c r="B305">
         <v>28950.216016732</v>
@@ -6956,7 +6879,7 @@
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="B306">
         <v>14549.0384288486</v>
@@ -6964,7 +6887,7 @@
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="B307">
         <v>47575.988911083303</v>
@@ -6972,7 +6895,7 @@
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
-        <v>409</v>
+        <v>397</v>
       </c>
       <c r="B308">
         <v>29243.9704338216</v>
@@ -6980,7 +6903,7 @@
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
-        <v>410</v>
+        <v>398</v>
       </c>
       <c r="B309">
         <v>5568.8707759524004</v>
@@ -6988,7 +6911,7 @@
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
-        <v>411</v>
+        <v>399</v>
       </c>
       <c r="B310">
         <v>48033.370145981302</v>
@@ -6996,7 +6919,7 @@
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
-        <v>412</v>
+        <v>400</v>
       </c>
       <c r="B311">
         <v>39538.708592452604</v>
@@ -7004,7 +6927,7 @@
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
-        <v>413</v>
+        <v>401</v>
       </c>
       <c r="B312">
         <v>10810.1372901293</v>
@@ -7012,7 +6935,7 @@
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
-        <v>414</v>
+        <v>402</v>
       </c>
       <c r="B313">
         <v>43932.060584997002</v>
@@ -7020,7 +6943,7 @@
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="B314">
         <v>23205.6704949218</v>
@@ -7028,7 +6951,7 @@
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="B315">
         <v>43426.085760296599</v>
@@ -7036,7 +6959,7 @@
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="B316">
         <v>43244.478509819397</v>
@@ -7044,7 +6967,7 @@
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
-        <v>418</v>
+        <v>406</v>
       </c>
       <c r="B317">
         <v>40100.287440736298</v>
@@ -7052,7 +6975,7 @@
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
-        <v>419</v>
+        <v>407</v>
       </c>
       <c r="B318">
         <v>42991.413697759199</v>
@@ -7060,7 +6983,7 @@
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
       <c r="B319">
         <v>27015.077048265601</v>
@@ -7068,7 +6991,7 @@
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="B320">
         <v>31930.4768916297</v>
@@ -7076,7 +6999,7 @@
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
-        <v>422</v>
+        <v>410</v>
       </c>
       <c r="B321">
         <v>8992.4575816770994</v>
@@ -7084,7 +7007,7 @@
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
-        <v>423</v>
+        <v>411</v>
       </c>
       <c r="B322">
         <v>41584.3688051805</v>
@@ -7092,7 +7015,7 @@
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="B323">
         <v>23383.7978769527</v>
@@ -7100,7 +7023,7 @@
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="B324">
         <v>45766.1897456968</v>
@@ -7108,7 +7031,7 @@
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="B325">
         <v>46180.215278298099</v>
@@ -7116,7 +7039,7 @@
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
       <c r="B326">
         <v>31094.828022225702</v>
@@ -7124,7 +7047,7 @@
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
-        <v>428</v>
+        <v>416</v>
       </c>
       <c r="B327">
         <v>29118.260328923701</v>
@@ -7132,7 +7055,7 @@
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="B328">
         <v>33803.097684461398</v>
@@ -7140,7 +7063,7 @@
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
-        <v>430</v>
+        <v>418</v>
       </c>
       <c r="B329">
         <v>41799.904663559697</v>
@@ -7148,7 +7071,7 @@
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
-        <v>431</v>
+        <v>419</v>
       </c>
       <c r="B330">
         <v>26982.098769861201</v>
@@ -7156,7 +7079,7 @@
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
-        <v>432</v>
+        <v>420</v>
       </c>
       <c r="B331">
         <v>33598.909774633401</v>
@@ -7164,7 +7087,7 @@
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
-        <v>433</v>
+        <v>421</v>
       </c>
       <c r="B332">
         <v>34334.758170273497</v>
@@ -7172,7 +7095,7 @@
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
-        <v>434</v>
+        <v>422</v>
       </c>
       <c r="B333">
         <v>23849.871488702898</v>
@@ -7180,7 +7103,7 @@
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
       <c r="B334">
         <v>20543.9333037693</v>
@@ -7188,7 +7111,7 @@
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
-        <v>436</v>
+        <v>424</v>
       </c>
       <c r="B335">
         <v>47069.914837708398</v>
@@ -7196,7 +7119,7 @@
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
-        <v>437</v>
+        <v>425</v>
       </c>
       <c r="B336">
         <v>32141.816568180599</v>
@@ -7204,7 +7127,7 @@
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
-        <v>438</v>
+        <v>426</v>
       </c>
       <c r="B337">
         <v>10501.0333409132</v>
@@ -7212,7 +7135,7 @@
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
-        <v>439</v>
+        <v>427</v>
       </c>
       <c r="B338">
         <v>41623.084604861397</v>
@@ -7220,7 +7143,7 @@
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="B339">
         <v>42709.3429820608</v>
@@ -7228,7 +7151,7 @@
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="B340">
         <v>43755.9087533149</v>
@@ -7236,7 +7159,7 @@
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
-        <v>442</v>
+        <v>430</v>
       </c>
       <c r="B341">
         <v>32418.515468674199</v>
@@ -7244,7 +7167,7 @@
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
-        <v>443</v>
+        <v>431</v>
       </c>
       <c r="B342">
         <v>31236.4896878494</v>
@@ -7252,7 +7175,7 @@
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
-        <v>444</v>
+        <v>432</v>
       </c>
       <c r="B343">
         <v>42617.191771922298</v>
@@ -7260,7 +7183,7 @@
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
-        <v>445</v>
+        <v>433</v>
       </c>
       <c r="B344">
         <v>41235.6697210126</v>
@@ -7268,7 +7191,7 @@
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
-        <v>446</v>
+        <v>434</v>
       </c>
       <c r="B345">
         <v>40985.436844090596</v>
@@ -7276,7 +7199,7 @@
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
       <c r="B346">
         <v>30856.476060786699</v>
@@ -7284,7 +7207,7 @@
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
-        <v>448</v>
+        <v>436</v>
       </c>
       <c r="B347">
         <v>8953.7466533003608</v>
@@ -7292,7 +7215,7 @@
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
-        <v>449</v>
+        <v>437</v>
       </c>
       <c r="B348">
         <v>18791.039831091799</v>
@@ -7300,7 +7223,7 @@
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
-        <v>450</v>
+        <v>438</v>
       </c>
       <c r="B349">
         <v>19569.769292229401</v>
@@ -7308,7 +7231,7 @@
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="B350">
         <v>11332.556290303</v>
@@ -7316,7 +7239,7 @@
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="B351">
         <v>44036.973836197998</v>
@@ -7324,7 +7247,7 @@
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="B352">
         <v>28542.542524245098</v>
@@ -7332,7 +7255,7 @@
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
       <c r="B353">
         <v>43458.110468350496</v>
@@ -7340,7 +7263,7 @@
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
-        <v>455</v>
+        <v>443</v>
       </c>
       <c r="B354">
         <v>8405.5148000539994</v>
@@ -7348,7 +7271,7 @@
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
-        <v>456</v>
+        <v>444</v>
       </c>
       <c r="B355">
         <v>42268.419038933898</v>
@@ -7356,7 +7279,7 @@
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
       <c r="B356">
         <v>21789.191720237901</v>
@@ -7364,7 +7287,7 @@
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
-        <v>458</v>
+        <v>446</v>
       </c>
       <c r="B357">
         <v>12498.613506145301</v>
@@ -7372,7 +7295,7 @@
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
       <c r="B358">
         <v>47561.276804511799</v>
@@ -7380,7 +7303,7 @@
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
-        <v>460</v>
+        <v>448</v>
       </c>
       <c r="B359">
         <v>30823.8353116445</v>
@@ -7388,7 +7311,7 @@
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="B360">
         <v>27370.979140509698</v>
@@ -7396,7 +7319,7 @@
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
       <c r="B361">
         <v>41231.9961913796</v>
@@ -7404,7 +7327,7 @@
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="B362">
         <v>31268.205724214102</v>
@@ -7412,7 +7335,7 @@
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="B363">
         <v>50124.794804071898</v>
@@ -7420,7 +7343,7 @@
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="B364">
         <v>15120.7112296368</v>
@@ -7428,7 +7351,7 @@
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="B365">
         <v>14934.939538915</v>
@@ -7436,7 +7359,7 @@
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
       <c r="B366">
         <v>18171.0157050001</v>
@@ -7444,7 +7367,7 @@
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="B367">
         <v>44384.192249820197</v>
@@ -7452,7 +7375,7 @@
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="B368">
         <v>38830.942224341801</v>
@@ -7460,7 +7383,7 @@
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
       <c r="B369">
         <v>48839.943163397103</v>
@@ -7468,7 +7391,7 @@
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="B370">
         <v>24430.574444767699</v>
@@ -7476,7 +7399,7 @@
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="B371">
         <v>32208.0515103424</v>
@@ -7484,7 +7407,7 @@
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
-        <v>473</v>
+        <v>461</v>
       </c>
       <c r="B372">
         <v>30849.612484936599</v>
@@ -7492,7 +7415,7 @@
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
       <c r="B373">
         <v>12348.252707453001</v>
@@ -7500,7 +7423,7 @@
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
-        <v>475</v>
+        <v>463</v>
       </c>
       <c r="B374">
         <v>14224.9277442689</v>
@@ -7508,7 +7431,7 @@
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
-        <v>476</v>
+        <v>464</v>
       </c>
       <c r="B375">
         <v>44206.780084103397</v>
@@ -7516,7 +7439,7 @@
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
-        <v>477</v>
+        <v>465</v>
       </c>
       <c r="B376">
         <v>10814.4750523477</v>
@@ -7524,7 +7447,7 @@
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
-        <v>478</v>
+        <v>466</v>
       </c>
       <c r="B377">
         <v>21738.627971108701</v>
@@ -7532,7 +7455,7 @@
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
-        <v>479</v>
+        <v>467</v>
       </c>
       <c r="B378">
         <v>45090.883591343001</v>
@@ -7540,7 +7463,7 @@
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
       <c r="B379">
         <v>24706.607462059299</v>
@@ -7548,7 +7471,7 @@
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
-        <v>481</v>
+        <v>469</v>
       </c>
       <c r="B380">
         <v>32162.6368514856</v>
@@ -7556,7 +7479,7 @@
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
-        <v>482</v>
+        <v>470</v>
       </c>
       <c r="B381">
         <v>41237.809827797799</v>
@@ -7564,7 +7487,7 @@
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="B382">
         <v>32032.245462002102</v>
@@ -7572,7 +7495,7 @@
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
       <c r="B383">
         <v>17916.8205088619</v>
@@ -7580,7 +7503,7 @@
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="B384">
         <v>30068.815380821801</v>
@@ -7588,7 +7511,7 @@
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="B385">
         <v>28750.464146676299</v>
@@ -7596,7 +7519,7 @@
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
-        <v>487</v>
+        <v>475</v>
       </c>
       <c r="B386">
         <v>42948.066406507402</v>
@@ -7604,7 +7527,7 @@
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
-        <v>488</v>
+        <v>476</v>
       </c>
       <c r="B387">
         <v>42660.024386970901</v>
@@ -7612,7 +7535,7 @@
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
-        <v>489</v>
+        <v>477</v>
       </c>
       <c r="B388">
         <v>36875.585293248601</v>
@@ -7620,7 +7543,7 @@
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
-        <v>490</v>
+        <v>478</v>
       </c>
       <c r="B389">
         <v>27284.923418054201</v>
@@ -7628,7 +7551,7 @@
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
       <c r="B390">
         <v>49181.557682114799</v>
@@ -7636,7 +7559,7 @@
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
-        <v>492</v>
+        <v>480</v>
       </c>
       <c r="B391">
         <v>49772.766426309201</v>
@@ -7644,7 +7567,7 @@
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
-        <v>493</v>
+        <v>481</v>
       </c>
       <c r="B392">
         <v>44586.232244597399</v>
@@ -7652,7 +7575,7 @@
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
-        <v>494</v>
+        <v>482</v>
       </c>
       <c r="B393">
         <v>28885.693527537402</v>
@@ -7660,7 +7583,7 @@
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
-        <v>495</v>
+        <v>483</v>
       </c>
       <c r="B394">
         <v>29615.382747830499</v>
@@ -7668,7 +7591,7 @@
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
-        <v>496</v>
+        <v>484</v>
       </c>
       <c r="B395">
         <v>27177.740793131899</v>
@@ -7676,7 +7599,7 @@
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
-        <v>497</v>
+        <v>485</v>
       </c>
       <c r="B396">
         <v>44041.072097733202</v>
@@ -7684,7 +7607,7 @@
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
-        <v>498</v>
+        <v>486</v>
       </c>
       <c r="B397">
         <v>18394.114209703901</v>
@@ -7692,7 +7615,7 @@
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
-        <v>499</v>
+        <v>487</v>
       </c>
       <c r="B398">
         <v>27912.348534954999</v>
@@ -7700,7 +7623,7 @@
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
-        <v>500</v>
+        <v>488</v>
       </c>
       <c r="B399">
         <v>18862.020854226601</v>
@@ -7708,7 +7631,7 @@
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
-        <v>501</v>
+        <v>489</v>
       </c>
       <c r="B400">
         <v>29318.980735263998</v>
@@ -7716,7 +7639,7 @@
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
-        <v>502</v>
+        <v>490</v>
       </c>
       <c r="B401">
         <v>48085.7537719393</v>
@@ -7724,7 +7647,7 @@
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
-        <v>503</v>
+        <v>491</v>
       </c>
       <c r="B402">
         <v>41204.900424801497</v>
@@ -7732,7 +7655,7 @@
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
-        <v>504</v>
+        <v>492</v>
       </c>
       <c r="B403">
         <v>24142.599472730199</v>
@@ -7740,7 +7663,7 @@
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
-        <v>505</v>
+        <v>493</v>
       </c>
       <c r="B404">
         <v>28258.204524075001</v>
@@ -7748,7 +7671,7 @@
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
-        <v>506</v>
+        <v>494</v>
       </c>
       <c r="B405">
         <v>29274.015824410799</v>
@@ -7756,7 +7679,7 @@
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="B406">
         <v>24693.5641522695</v>
@@ -7764,7 +7687,7 @@
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
-        <v>508</v>
+        <v>496</v>
       </c>
       <c r="B407">
         <v>41914.402314864899</v>
@@ -7772,7 +7695,7 @@
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
-        <v>509</v>
+        <v>497</v>
       </c>
       <c r="B408">
         <v>42154.2572488066</v>
@@ -7780,7 +7703,7 @@
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
-        <v>510</v>
+        <v>498</v>
       </c>
       <c r="B409">
         <v>43814.286060328101</v>
@@ -7788,7 +7711,7 @@
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="B410">
         <v>47217.6862546341</v>
@@ -7796,7 +7719,7 @@
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
-        <v>512</v>
+        <v>500</v>
       </c>
       <c r="B411">
         <v>43070.370716742298</v>
@@ -7804,7 +7727,7 @@
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
-        <v>513</v>
+        <v>501</v>
       </c>
       <c r="B412">
         <v>42879.259979577902</v>
@@ -7812,7 +7735,7 @@
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
-        <v>514</v>
+        <v>502</v>
       </c>
       <c r="B413">
         <v>13898.5258230503</v>
@@ -7820,7 +7743,7 @@
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
-        <v>515</v>
+        <v>503</v>
       </c>
       <c r="B414">
         <v>43652.204127685</v>
@@ -7828,7 +7751,7 @@
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
-        <v>516</v>
+        <v>504</v>
       </c>
       <c r="B415">
         <v>18561.075305723301</v>
@@ -7836,7 +7759,7 @@
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
-        <v>517</v>
+        <v>505</v>
       </c>
       <c r="B416">
         <v>8678.2619044706407</v>
@@ -7844,7 +7767,7 @@
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
-        <v>518</v>
+        <v>506</v>
       </c>
       <c r="B417">
         <v>12326.7504194589</v>
@@ -7852,7 +7775,7 @@
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
-        <v>519</v>
+        <v>507</v>
       </c>
       <c r="B418">
         <v>31514.726486025898</v>
@@ -7860,7 +7783,7 @@
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
-        <v>520</v>
+        <v>508</v>
       </c>
       <c r="B419">
         <v>49712.383300509202</v>
@@ -7868,7 +7791,7 @@
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
-        <v>521</v>
+        <v>509</v>
       </c>
       <c r="B420">
         <v>10708.1816026223</v>
@@ -7876,7 +7799,7 @@
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
-        <v>522</v>
+        <v>510</v>
       </c>
       <c r="B421">
         <v>48167.428088560198</v>
@@ -7884,7 +7807,7 @@
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
-        <v>523</v>
+        <v>511</v>
       </c>
       <c r="B422">
         <v>18170.104876067398</v>
@@ -7892,7 +7815,7 @@
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
-        <v>524</v>
+        <v>512</v>
       </c>
       <c r="B423">
         <v>14301.2802442622</v>
@@ -7900,7 +7823,7 @@
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
-        <v>525</v>
+        <v>513</v>
       </c>
       <c r="B424">
         <v>26056.8161566817</v>
@@ -7908,7 +7831,7 @@
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
-        <v>526</v>
+        <v>514</v>
       </c>
       <c r="B425">
         <v>29162.580405198602</v>
@@ -7916,7 +7839,7 @@
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
-        <v>527</v>
+        <v>515</v>
       </c>
       <c r="B426">
         <v>43049.540655551798</v>
@@ -7924,7 +7847,7 @@
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
-        <v>528</v>
+        <v>516</v>
       </c>
       <c r="B427">
         <v>11287.2654437814</v>
@@ -7932,7 +7855,7 @@
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
-        <v>529</v>
+        <v>517</v>
       </c>
       <c r="B428">
         <v>29402.369343638999</v>
@@ -7940,7 +7863,7 @@
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
-        <v>530</v>
+        <v>518</v>
       </c>
       <c r="B429">
         <v>37494.715482760301</v>
@@ -7948,7 +7871,7 @@
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
-        <v>531</v>
+        <v>519</v>
       </c>
       <c r="B430">
         <v>9442.0300991130698</v>
@@ -7956,7 +7879,7 @@
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
-        <v>532</v>
+        <v>520</v>
       </c>
       <c r="B431">
         <v>29876.713765402499</v>
@@ -7964,7 +7887,7 @@
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
-        <v>533</v>
+        <v>521</v>
       </c>
       <c r="B432">
         <v>12727.7114062936</v>
@@ -7972,7 +7895,7 @@
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="B433">
         <v>31359.409597412399</v>
@@ -7980,7 +7903,7 @@
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
-        <v>535</v>
+        <v>523</v>
       </c>
       <c r="B434">
         <v>28022.310689221998</v>
@@ -7988,7 +7911,7 @@
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
       <c r="B435">
         <v>12047.7012291839</v>
@@ -7996,7 +7919,7 @@
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
       <c r="B436">
         <v>44282.784734127003</v>
@@ -8004,7 +7927,7 @@
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
-        <v>538</v>
+        <v>526</v>
       </c>
       <c r="B437">
         <v>48805.008795988797</v>
@@ -8012,7 +7935,7 @@
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
-        <v>539</v>
+        <v>527</v>
       </c>
       <c r="B438">
         <v>21011.3424537139</v>
@@ -8020,7 +7943,7 @@
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
-        <v>540</v>
+        <v>528</v>
       </c>
       <c r="B439">
         <v>49773.407011278803</v>
@@ -8028,7 +7951,7 @@
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
-        <v>541</v>
+        <v>529</v>
       </c>
       <c r="B440">
         <v>34350.171370779201</v>
@@ -8036,7 +7959,7 @@
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
-        <v>542</v>
+        <v>530</v>
       </c>
       <c r="B441">
         <v>34278.5663433015</v>
@@ -8044,7 +7967,7 @@
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
-        <v>543</v>
+        <v>531</v>
       </c>
       <c r="B442">
         <v>34179.023187427003</v>
@@ -8052,7 +7975,7 @@
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="B443">
         <v>27365.537482677701</v>
@@ -8060,7 +7983,7 @@
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
       <c r="B444">
         <v>26435.7593224257</v>
@@ -8068,7 +7991,7 @@
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
-        <v>546</v>
+        <v>534</v>
       </c>
       <c r="B445">
         <v>31020.202061731499</v>
@@ -8076,7 +7999,7 @@
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
-        <v>547</v>
+        <v>535</v>
       </c>
       <c r="B446">
         <v>7510.5236063904504</v>
@@ -8084,7 +8007,7 @@
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
-        <v>548</v>
+        <v>536</v>
       </c>
       <c r="B447">
         <v>42053.651985865799</v>
@@ -8092,7 +8015,7 @@
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
-        <v>549</v>
+        <v>537</v>
       </c>
       <c r="B448">
         <v>9785.2562367141509</v>
@@ -8100,7 +8023,7 @@
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
-        <v>550</v>
+        <v>538</v>
       </c>
       <c r="B449">
         <v>21360.952216489401</v>
@@ -8108,7 +8031,7 @@
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
-        <v>551</v>
+        <v>539</v>
       </c>
       <c r="B450">
         <v>28566.375035009201</v>
@@ -8116,7 +8039,7 @@
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
-        <v>552</v>
+        <v>540</v>
       </c>
       <c r="B451">
         <v>20261.261010386999</v>
@@ -8124,7 +8047,7 @@
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
-        <v>553</v>
+        <v>541</v>
       </c>
       <c r="B452">
         <v>31565.287414022601</v>
@@ -8132,7 +8055,7 @@
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
-        <v>554</v>
+        <v>542</v>
       </c>
       <c r="B453">
         <v>45538.920547726797</v>
@@ -8140,7 +8063,7 @@
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
-        <v>555</v>
+        <v>543</v>
       </c>
       <c r="B454">
         <v>41381.254690484398</v>
@@ -8148,7 +8071,7 @@
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
-        <v>556</v>
+        <v>544</v>
       </c>
       <c r="B455">
         <v>33574.503513588301</v>
@@ -8156,7 +8079,7 @@
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
-        <v>557</v>
+        <v>545</v>
       </c>
       <c r="B456">
         <v>49439.171934902799</v>
@@ -8164,7 +8087,7 @@
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
-        <v>558</v>
+        <v>546</v>
       </c>
       <c r="B457">
         <v>41316.127685817301</v>
@@ -8172,7 +8095,7 @@
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
-        <v>559</v>
+        <v>547</v>
       </c>
       <c r="B458">
         <v>44521.547799506297</v>
@@ -8180,7 +8103,7 @@
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
-        <v>560</v>
+        <v>548</v>
       </c>
       <c r="B459">
         <v>14140.049550612501</v>
@@ -8188,7 +8111,7 @@
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
-        <v>561</v>
+        <v>549</v>
       </c>
       <c r="B460">
         <v>31452.071539096502</v>
@@ -8196,7 +8119,7 @@
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="B461">
         <v>47270.358478841401</v>
@@ -8204,7 +8127,7 @@
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
-        <v>563</v>
+        <v>551</v>
       </c>
       <c r="B462">
         <v>23837.834849762799</v>
@@ -8212,7 +8135,7 @@
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
-        <v>564</v>
+        <v>552</v>
       </c>
       <c r="B463">
         <v>43679.038037506398</v>
@@ -8220,7 +8143,7 @@
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
-        <v>565</v>
+        <v>553</v>
       </c>
       <c r="B464">
         <v>11452.2574816611</v>
@@ -8228,7 +8151,7 @@
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
-        <v>566</v>
+        <v>554</v>
       </c>
       <c r="B465">
         <v>31218.877485475401</v>
@@ -8236,7 +8159,7 @@
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
-        <v>567</v>
+        <v>555</v>
       </c>
       <c r="B466">
         <v>46938.212977349802</v>
@@ -8244,7 +8167,7 @@
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
-        <v>568</v>
+        <v>556</v>
       </c>
       <c r="B467">
         <v>24414.539046165501</v>
@@ -8252,7 +8175,7 @@
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
-        <v>569</v>
+        <v>557</v>
       </c>
       <c r="B468">
         <v>32030.024759436499</v>
@@ -8260,7 +8183,7 @@
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
-        <v>570</v>
+        <v>558</v>
       </c>
       <c r="B469">
         <v>41483.640125682999</v>
@@ -8268,7 +8191,7 @@
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
-        <v>571</v>
+        <v>559</v>
       </c>
       <c r="B470">
         <v>21548.1041685317</v>
@@ -8276,7 +8199,7 @@
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
-        <v>572</v>
+        <v>560</v>
       </c>
       <c r="B471">
         <v>32089.489159102301</v>
@@ -8284,7 +8207,7 @@
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
-        <v>573</v>
+        <v>561</v>
       </c>
       <c r="B472">
         <v>30331.510317930301</v>
@@ -8292,7 +8215,7 @@
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
-        <v>574</v>
+        <v>562</v>
       </c>
       <c r="B473">
         <v>27730.157238141699</v>
@@ -8300,7 +8223,7 @@
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
-        <v>575</v>
+        <v>563</v>
       </c>
       <c r="B474">
         <v>28558.3878875835</v>
@@ -8308,7 +8231,7 @@
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
-        <v>576</v>
+        <v>564</v>
       </c>
       <c r="B475">
         <v>45191.485987826098</v>
@@ -8316,7 +8239,7 @@
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
-        <v>577</v>
+        <v>565</v>
       </c>
       <c r="B476">
         <v>39535.951898997897</v>
@@ -8324,7 +8247,7 @@
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
       <c r="B477">
         <v>44992.581978731301</v>
@@ -8332,7 +8255,7 @@
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
-        <v>579</v>
+        <v>567</v>
       </c>
       <c r="B478">
         <v>31301.676173989101</v>
@@ -8340,7 +8263,7 @@
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
-        <v>580</v>
+        <v>568</v>
       </c>
       <c r="B479">
         <v>46048.282963874197</v>
@@ -8348,7 +8271,7 @@
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
-        <v>581</v>
+        <v>569</v>
       </c>
       <c r="B480">
         <v>39567.578776849899</v>
@@ -8356,7 +8279,7 @@
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
-        <v>582</v>
+        <v>570</v>
       </c>
       <c r="B481">
         <v>31803.011552513199</v>
@@ -8364,7 +8287,7 @@
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
-        <v>583</v>
+        <v>571</v>
       </c>
       <c r="B482">
         <v>11473.696252051899</v>
@@ -8372,7 +8295,7 @@
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
-        <v>584</v>
+        <v>572</v>
       </c>
       <c r="B483">
         <v>14761.7612713252</v>
@@ -8380,7 +8303,7 @@
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
-        <v>585</v>
+        <v>573</v>
       </c>
       <c r="B484">
         <v>41410.124195296703</v>
@@ -8388,7 +8311,7 @@
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
-        <v>586</v>
+        <v>574</v>
       </c>
       <c r="B485">
         <v>27401.013235467199</v>
@@ -8396,7 +8319,7 @@
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
-        <v>587</v>
+        <v>575</v>
       </c>
       <c r="B486">
         <v>16165.292378735299</v>
@@ -8404,7 +8327,7 @@
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
-        <v>588</v>
+        <v>576</v>
       </c>
       <c r="B487">
         <v>21176.445294367</v>
@@ -8412,7 +8335,7 @@
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
-        <v>589</v>
+        <v>577</v>
       </c>
       <c r="B488">
         <v>44580.017715510199</v>
@@ -8420,7 +8343,7 @@
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
-        <v>590</v>
+        <v>578</v>
       </c>
       <c r="B489">
         <v>40213.913785571902</v>
@@ -8428,7 +8351,7 @@
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
-        <v>591</v>
+        <v>579</v>
       </c>
       <c r="B490">
         <v>44495.488103719697</v>
@@ -8436,7 +8359,7 @@
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
-        <v>592</v>
+        <v>580</v>
       </c>
       <c r="B491">
         <v>41022.294164418898</v>
@@ -8444,7 +8367,7 @@
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
-        <v>593</v>
+        <v>581</v>
       </c>
       <c r="B492">
         <v>21221.061827470501</v>
@@ -8452,7 +8375,7 @@
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
-        <v>594</v>
+        <v>582</v>
       </c>
       <c r="B493">
         <v>27266.033743687101</v>
@@ -8460,7 +8383,7 @@
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
-        <v>595</v>
+        <v>583</v>
       </c>
       <c r="B494">
         <v>39547.928513047402</v>
@@ -8468,7 +8391,7 @@
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
-        <v>596</v>
+        <v>584</v>
       </c>
       <c r="B495">
         <v>42137.880271268397</v>
@@ -8476,7 +8399,7 @@
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
-        <v>597</v>
+        <v>585</v>
       </c>
       <c r="B496">
         <v>46847.238589340697</v>
@@ -8484,7 +8407,7 @@
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
-        <v>598</v>
+        <v>586</v>
       </c>
       <c r="B497">
         <v>14617.8618507231</v>
@@ -8492,7 +8415,7 @@
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
-        <v>599</v>
+        <v>587</v>
       </c>
       <c r="B498">
         <v>41571.113237630598</v>
@@ -8500,7 +8423,7 @@
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
-        <v>600</v>
+        <v>588</v>
       </c>
       <c r="B499">
         <v>11684.8173689871</v>
@@ -8508,7 +8431,7 @@
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
-        <v>601</v>
+        <v>589</v>
       </c>
       <c r="B500">
         <v>41344.8218209185</v>
@@ -8516,7 +8439,7 @@
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
-        <v>602</v>
+        <v>590</v>
       </c>
       <c r="B501">
         <v>9719.59710904239</v>
@@ -8524,7 +8447,7 @@
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
-        <v>603</v>
+        <v>591</v>
       </c>
       <c r="B502">
         <v>44835.9710066763</v>
@@ -8532,7 +8455,7 @@
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
-        <v>604</v>
+        <v>592</v>
       </c>
       <c r="B503">
         <v>42512.357033435001</v>
@@ -8540,7 +8463,7 @@
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
-        <v>605</v>
+        <v>593</v>
       </c>
       <c r="B504">
         <v>28789.743601011502</v>
@@ -8548,7 +8471,7 @@
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
-        <v>606</v>
+        <v>594</v>
       </c>
       <c r="B505">
         <v>22804.558072864798</v>
@@ -8556,7 +8479,7 @@
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
-        <v>607</v>
+        <v>595</v>
       </c>
       <c r="B506">
         <v>8008.5813716272296</v>
@@ -8564,7 +8487,7 @@
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
-        <v>608</v>
+        <v>596</v>
       </c>
       <c r="B507">
         <v>31642.656278800401</v>
@@ -8572,7 +8495,7 @@
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
-        <v>609</v>
+        <v>597</v>
       </c>
       <c r="B508">
         <v>24637.952304829301</v>
@@ -8580,7 +8503,7 @@
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
-        <v>610</v>
+        <v>598</v>
       </c>
       <c r="B509">
         <v>29171.480959910201</v>
@@ -8588,7 +8511,7 @@
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
-        <v>611</v>
+        <v>599</v>
       </c>
       <c r="B510">
         <v>45336.5922956918</v>
@@ -8596,7 +8519,7 @@
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
-        <v>612</v>
+        <v>600</v>
       </c>
       <c r="B511">
         <v>23303.891360111898</v>
@@ -8604,7 +8527,7 @@
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
-        <v>613</v>
+        <v>601</v>
       </c>
       <c r="B512">
         <v>47967.990518930397</v>
@@ -8612,7 +8535,7 @@
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
-        <v>614</v>
+        <v>602</v>
       </c>
       <c r="B513">
         <v>31311.392787527198</v>
@@ -8620,7 +8543,7 @@
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
-        <v>615</v>
+        <v>603</v>
       </c>
       <c r="B514">
         <v>20364.3874112712</v>
@@ -8628,7 +8551,7 @@
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
-        <v>616</v>
+        <v>604</v>
       </c>
       <c r="B515">
         <v>12129.3520612188</v>
@@ -8636,7 +8559,7 @@
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
-        <v>617</v>
+        <v>605</v>
       </c>
       <c r="B516">
         <v>42656.550827673302</v>
@@ -8644,7 +8567,7 @@
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
-        <v>618</v>
+        <v>606</v>
       </c>
       <c r="B517">
         <v>34363.654495239702</v>
@@ -8652,7 +8575,7 @@
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
-        <v>619</v>
+        <v>607</v>
       </c>
       <c r="B518">
         <v>12138.5065881472</v>
@@ -8660,7 +8583,7 @@
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
-        <v>620</v>
+        <v>608</v>
       </c>
       <c r="B519">
         <v>32030.895421251698</v>
@@ -8668,7 +8591,7 @@
     </row>
     <row r="520" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
-        <v>621</v>
+        <v>609</v>
       </c>
       <c r="B520">
         <v>42195.979438602997</v>
@@ -8676,7 +8599,7 @@
     </row>
     <row r="521" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A521" t="s">
-        <v>622</v>
+        <v>610</v>
       </c>
       <c r="B521">
         <v>31518.615526980699</v>
@@ -8684,7 +8607,7 @@
     </row>
     <row r="522" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A522" t="s">
-        <v>623</v>
+        <v>611</v>
       </c>
       <c r="B522">
         <v>6269.3187617428903</v>
@@ -8692,7 +8615,7 @@
     </row>
     <row r="523" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A523" t="s">
-        <v>624</v>
+        <v>612</v>
       </c>
       <c r="B523">
         <v>16022.6604967604</v>
@@ -8700,7 +8623,7 @@
     </row>
     <row r="524" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A524" t="s">
-        <v>625</v>
+        <v>613</v>
       </c>
       <c r="B524">
         <v>32112.891354933799</v>
@@ -8708,7 +8631,7 @@
     </row>
     <row r="525" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A525" t="s">
-        <v>626</v>
+        <v>614</v>
       </c>
       <c r="B525">
         <v>12383.5556197438</v>
@@ -8716,7 +8639,7 @@
     </row>
     <row r="526" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A526" t="s">
-        <v>627</v>
+        <v>615</v>
       </c>
       <c r="B526">
         <v>42446.819405707</v>
@@ -8724,7 +8647,7 @@
     </row>
     <row r="527" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A527" t="s">
-        <v>628</v>
+        <v>616</v>
       </c>
       <c r="B527">
         <v>9747.9370859876908</v>
@@ -8732,7 +8655,7 @@
     </row>
     <row r="528" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A528" t="s">
-        <v>629</v>
+        <v>617</v>
       </c>
       <c r="B528">
         <v>41675.122422318898</v>
@@ -8740,7 +8663,7 @@
     </row>
     <row r="529" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A529" t="s">
-        <v>630</v>
+        <v>618</v>
       </c>
       <c r="B529">
         <v>12540.8375672248</v>
@@ -8748,7 +8671,7 @@
     </row>
     <row r="530" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A530" t="s">
-        <v>631</v>
+        <v>619</v>
       </c>
       <c r="B530">
         <v>20421.7086786412</v>
@@ -8756,7 +8679,7 @@
     </row>
     <row r="531" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A531" t="s">
-        <v>632</v>
+        <v>620</v>
       </c>
       <c r="B531">
         <v>18024.706398677801</v>
@@ -8764,7 +8687,7 @@
     </row>
     <row r="532" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A532" t="s">
-        <v>633</v>
+        <v>621</v>
       </c>
       <c r="B532">
         <v>12620.0924899196</v>
@@ -8772,7 +8695,7 @@
     </row>
     <row r="533" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A533" t="s">
-        <v>634</v>
+        <v>622</v>
       </c>
       <c r="B533">
         <v>7729.54069938877</v>
@@ -8780,7 +8703,7 @@
     </row>
     <row r="534" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A534" t="s">
-        <v>635</v>
+        <v>623</v>
       </c>
       <c r="B534">
         <v>14723.053281427199</v>
@@ -8788,7 +8711,7 @@
     </row>
     <row r="535" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A535" t="s">
-        <v>636</v>
+        <v>624</v>
       </c>
       <c r="B535">
         <v>14799.984506577501</v>
@@ -8796,7 +8719,7 @@
     </row>
     <row r="536" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A536" t="s">
-        <v>637</v>
+        <v>625</v>
       </c>
       <c r="B536">
         <v>43207.744284019704</v>
@@ -8804,7 +8727,7 @@
     </row>
     <row r="537" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A537" t="s">
-        <v>638</v>
+        <v>626</v>
       </c>
       <c r="B537">
         <v>27631.734795019402</v>
@@ -8812,7 +8735,7 @@
     </row>
     <row r="538" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A538" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="B538">
         <v>44810.683186606802</v>
@@ -8820,7 +8743,7 @@
     </row>
     <row r="539" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A539" t="s">
-        <v>640</v>
+        <v>628</v>
       </c>
       <c r="B539">
         <v>31880.8770452522</v>
@@ -8828,7 +8751,7 @@
     </row>
     <row r="540" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A540" t="s">
-        <v>641</v>
+        <v>629</v>
       </c>
       <c r="B540">
         <v>31005.506281818401</v>
@@ -8836,7 +8759,7 @@
     </row>
     <row r="541" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A541" t="s">
-        <v>642</v>
+        <v>630</v>
       </c>
       <c r="B541">
         <v>14588.5011989539</v>
@@ -8844,7 +8767,7 @@
     </row>
     <row r="542" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A542" t="s">
-        <v>643</v>
+        <v>631</v>
       </c>
       <c r="B542">
         <v>8775.9115350068696</v>
@@ -8852,7 +8775,7 @@
     </row>
     <row r="543" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A543" t="s">
-        <v>644</v>
+        <v>632</v>
       </c>
       <c r="B543">
         <v>31011.340742672299</v>
@@ -8860,7 +8783,7 @@
     </row>
     <row r="544" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A544" t="s">
-        <v>645</v>
+        <v>633</v>
       </c>
       <c r="B544">
         <v>36569.592102105198</v>
@@ -8868,7 +8791,7 @@
     </row>
     <row r="545" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A545" t="s">
-        <v>646</v>
+        <v>634</v>
       </c>
       <c r="B545">
         <v>42436.389640176501</v>
@@ -8876,7 +8799,7 @@
     </row>
     <row r="546" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A546" t="s">
-        <v>647</v>
+        <v>635</v>
       </c>
       <c r="B546">
         <v>48033.324449544598</v>
@@ -8884,7 +8807,7 @@
     </row>
     <row r="547" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A547" t="s">
-        <v>648</v>
+        <v>636</v>
       </c>
       <c r="B547">
         <v>8761.2785752125892</v>
@@ -8892,7 +8815,7 @@
     </row>
     <row r="548" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A548" t="s">
-        <v>649</v>
+        <v>637</v>
       </c>
       <c r="B548">
         <v>32071.1324045295</v>
@@ -8900,7 +8823,7 @@
     </row>
     <row r="549" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A549" t="s">
-        <v>650</v>
+        <v>638</v>
       </c>
       <c r="B549">
         <v>24688.578532988198</v>
@@ -8908,7 +8831,7 @@
     </row>
     <row r="550" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A550" t="s">
-        <v>651</v>
+        <v>639</v>
       </c>
       <c r="B550">
         <v>9161.5447977655494</v>
@@ -8916,7 +8839,7 @@
     </row>
     <row r="551" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A551" t="s">
-        <v>652</v>
+        <v>640</v>
       </c>
       <c r="B551">
         <v>31866.148436638399</v>
@@ -8924,7 +8847,7 @@
     </row>
     <row r="552" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A552" t="s">
-        <v>653</v>
+        <v>641</v>
       </c>
       <c r="B552">
         <v>35137.255458784501</v>
@@ -8932,7 +8855,7 @@
     </row>
     <row r="553" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A553" t="s">
-        <v>654</v>
+        <v>642</v>
       </c>
       <c r="B553">
         <v>9134.9782239599208</v>
@@ -8940,7 +8863,7 @@
     </row>
     <row r="554" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A554" t="s">
-        <v>655</v>
+        <v>643</v>
       </c>
       <c r="B554">
         <v>33619.141106576302</v>
@@ -8948,7 +8871,7 @@
     </row>
     <row r="555" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A555" t="s">
-        <v>656</v>
+        <v>644</v>
       </c>
       <c r="B555">
         <v>28548.154040757501</v>
@@ -8956,7 +8879,7 @@
     </row>
     <row r="556" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A556" t="s">
-        <v>657</v>
+        <v>645</v>
       </c>
       <c r="B556">
         <v>30422.290378975798</v>
@@ -8964,7 +8887,7 @@
     </row>
     <row r="557" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A557" t="s">
-        <v>658</v>
+        <v>646</v>
       </c>
       <c r="B557">
         <v>16749.3799950256</v>
@@ -8972,7 +8895,7 @@
     </row>
     <row r="558" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A558" t="s">
-        <v>659</v>
+        <v>647</v>
       </c>
       <c r="B558">
         <v>41986.837866109498</v>
@@ -8980,7 +8903,7 @@
     </row>
     <row r="559" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A559" t="s">
-        <v>660</v>
+        <v>648</v>
       </c>
       <c r="B559">
         <v>28489.1083071338</v>
@@ -8988,7 +8911,7 @@
     </row>
     <row r="560" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A560" t="s">
-        <v>661</v>
+        <v>649</v>
       </c>
       <c r="B560">
         <v>43648.098326689003</v>
@@ -8996,7 +8919,7 @@
     </row>
     <row r="561" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A561" t="s">
-        <v>662</v>
+        <v>650</v>
       </c>
       <c r="B561">
         <v>32128.628260783698</v>
@@ -9004,7 +8927,7 @@
     </row>
     <row r="562" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A562" t="s">
-        <v>663</v>
+        <v>651</v>
       </c>
       <c r="B562">
         <v>18412.208391444401</v>
@@ -9012,7 +8935,7 @@
     </row>
     <row r="563" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A563" t="s">
-        <v>664</v>
+        <v>652</v>
       </c>
       <c r="B563">
         <v>50487.1188892098</v>
@@ -9020,7 +8943,7 @@
     </row>
     <row r="564" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A564" t="s">
-        <v>665</v>
+        <v>653</v>
       </c>
       <c r="B564">
         <v>47040.718416850199</v>
@@ -9028,7 +8951,7 @@
     </row>
     <row r="565" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A565" t="s">
-        <v>666</v>
+        <v>654</v>
       </c>
       <c r="B565">
         <v>47085.279020941198</v>
@@ -9036,7 +8959,7 @@
     </row>
     <row r="566" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A566" t="s">
-        <v>667</v>
+        <v>655</v>
       </c>
       <c r="B566">
         <v>19169.585201570899</v>
@@ -9044,7 +8967,7 @@
     </row>
     <row r="567" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A567" t="s">
-        <v>668</v>
+        <v>656</v>
       </c>
       <c r="B567">
         <v>35806.812897850803</v>
@@ -9052,7 +8975,7 @@
     </row>
     <row r="568" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A568" t="s">
-        <v>669</v>
+        <v>657</v>
       </c>
       <c r="B568">
         <v>11277.918250287499</v>
@@ -9060,7 +8983,7 @@
     </row>
     <row r="569" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A569" t="s">
-        <v>670</v>
+        <v>658</v>
       </c>
       <c r="B569">
         <v>5649.24544708348</v>
@@ -9068,7 +8991,7 @@
     </row>
     <row r="570" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A570" t="s">
-        <v>671</v>
+        <v>659</v>
       </c>
       <c r="B570">
         <v>25340.331273991102</v>
@@ -9076,7 +8999,7 @@
     </row>
     <row r="571" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A571" t="s">
-        <v>672</v>
+        <v>660</v>
       </c>
       <c r="B571">
         <v>43043.214799295602</v>
@@ -9084,7 +9007,7 @@
     </row>
     <row r="572" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A572" t="s">
-        <v>673</v>
+        <v>661</v>
       </c>
       <c r="B572">
         <v>10842.106924452501</v>
@@ -9092,7 +9015,7 @@
     </row>
     <row r="573" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A573" t="s">
-        <v>674</v>
+        <v>662</v>
       </c>
       <c r="B573">
         <v>13603.4953624918</v>
@@ -9100,7 +9023,7 @@
     </row>
     <row r="574" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A574" t="s">
-        <v>675</v>
+        <v>663</v>
       </c>
       <c r="B574">
         <v>8355.4209701945292</v>
@@ -9108,7 +9031,7 @@
     </row>
     <row r="575" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A575" t="s">
-        <v>676</v>
+        <v>664</v>
       </c>
       <c r="B575">
         <v>21579.161540021702</v>
@@ -9116,7 +9039,7 @@
     </row>
     <row r="576" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A576" t="s">
-        <v>677</v>
+        <v>665</v>
       </c>
       <c r="B576">
         <v>36130.759451721897</v>
@@ -9124,7 +9047,7 @@
     </row>
     <row r="577" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A577" t="s">
-        <v>678</v>
+        <v>666</v>
       </c>
       <c r="B577">
         <v>16200.1980118311</v>
@@ -9132,7 +9055,7 @@
     </row>
     <row r="578" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A578" t="s">
-        <v>679</v>
+        <v>667</v>
       </c>
       <c r="B578">
         <v>22984.690463070401</v>
@@ -9140,7 +9063,7 @@
     </row>
     <row r="579" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A579" t="s">
-        <v>680</v>
+        <v>668</v>
       </c>
       <c r="B579">
         <v>28895.805802033399</v>
@@ -9148,7 +9071,7 @@
     </row>
     <row r="580" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A580" t="s">
-        <v>681</v>
+        <v>669</v>
       </c>
       <c r="B580">
         <v>11846.554657941</v>
@@ -9156,7 +9079,7 @@
     </row>
     <row r="581" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A581" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="B581">
         <v>30093.623475918001</v>
@@ -9164,7 +9087,7 @@
     </row>
     <row r="582" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A582" t="s">
-        <v>683</v>
+        <v>671</v>
       </c>
       <c r="B582">
         <v>47440.876045287703</v>
@@ -9172,7 +9095,7 @@
     </row>
     <row r="583" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A583" t="s">
-        <v>684</v>
+        <v>672</v>
       </c>
       <c r="B583">
         <v>40533.086242566496</v>
@@ -9180,7 +9103,7 @@
     </row>
     <row r="584" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A584" t="s">
-        <v>685</v>
+        <v>673</v>
       </c>
       <c r="B584">
         <v>29961.4284922158</v>
@@ -9188,7 +9111,7 @@
     </row>
     <row r="585" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A585" t="s">
-        <v>686</v>
+        <v>674</v>
       </c>
       <c r="B585">
         <v>38036.358199971197</v>
@@ -9196,7 +9119,7 @@
     </row>
     <row r="586" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A586" t="s">
-        <v>687</v>
+        <v>675</v>
       </c>
       <c r="B586">
         <v>16939.4981129874</v>
@@ -9204,7 +9127,7 @@
     </row>
     <row r="587" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A587" t="s">
-        <v>688</v>
+        <v>676</v>
       </c>
       <c r="B587">
         <v>43065.845778705501</v>
@@ -9212,7 +9135,7 @@
     </row>
     <row r="588" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A588" t="s">
-        <v>689</v>
+        <v>677</v>
       </c>
       <c r="B588">
         <v>46685.050057766603</v>
@@ -9220,7 +9143,7 @@
     </row>
     <row r="589" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A589" t="s">
-        <v>690</v>
+        <v>678</v>
       </c>
       <c r="B589">
         <v>9441.1039810515304</v>
@@ -9228,7 +9151,7 @@
     </row>
     <row r="590" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A590" t="s">
-        <v>691</v>
+        <v>679</v>
       </c>
       <c r="B590">
         <v>26439.543889927401</v>
@@ -9236,7 +9159,7 @@
     </row>
     <row r="591" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A591" t="s">
-        <v>692</v>
+        <v>680</v>
       </c>
       <c r="B591">
         <v>21019.752337521299</v>
@@ -9244,7 +9167,7 @@
     </row>
     <row r="592" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A592" t="s">
-        <v>693</v>
+        <v>681</v>
       </c>
       <c r="B592">
         <v>10784.690415573299</v>
@@ -9252,7 +9175,7 @@
     </row>
     <row r="593" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A593" t="s">
-        <v>694</v>
+        <v>682</v>
       </c>
       <c r="B593">
         <v>31687.2100563657</v>
@@ -9260,7 +9183,7 @@
     </row>
     <row r="594" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A594" t="s">
-        <v>695</v>
+        <v>683</v>
       </c>
       <c r="B594">
         <v>32040.5694640683</v>
@@ -9268,7 +9191,7 @@
     </row>
     <row r="595" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A595" t="s">
-        <v>696</v>
+        <v>684</v>
       </c>
       <c r="B595">
         <v>42793.897573416798</v>
@@ -9276,7 +9199,7 @@
     </row>
     <row r="596" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A596" t="s">
-        <v>697</v>
+        <v>685</v>
       </c>
       <c r="B596">
         <v>44912.431396220898</v>
@@ -9284,7 +9207,7 @@
     </row>
     <row r="597" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A597" t="s">
-        <v>698</v>
+        <v>686</v>
       </c>
       <c r="B597">
         <v>28402.526638777199</v>
@@ -9292,7 +9215,7 @@
     </row>
     <row r="598" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A598" t="s">
-        <v>699</v>
+        <v>687</v>
       </c>
       <c r="B598">
         <v>16405.736867733202</v>
@@ -9300,7 +9223,7 @@
     </row>
     <row r="599" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A599" t="s">
-        <v>700</v>
+        <v>688</v>
       </c>
       <c r="B599">
         <v>40860.304630981998</v>
@@ -9308,7 +9231,7 @@
     </row>
     <row r="600" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A600" t="s">
-        <v>701</v>
+        <v>689</v>
       </c>
       <c r="B600">
         <v>29830.069072712799</v>
@@ -9316,7 +9239,7 @@
     </row>
     <row r="601" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A601" t="s">
-        <v>702</v>
+        <v>690</v>
       </c>
       <c r="B601">
         <v>30607.607330114301</v>
@@ -9324,7 +9247,7 @@
     </row>
     <row r="602" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A602" t="s">
-        <v>703</v>
+        <v>691</v>
       </c>
       <c r="B602">
         <v>45095.980168637703</v>
@@ -9332,7 +9255,7 @@
     </row>
     <row r="603" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A603" t="s">
-        <v>704</v>
+        <v>692</v>
       </c>
       <c r="B603">
         <v>46482.373702672499</v>
@@ -9340,7 +9263,7 @@
     </row>
     <row r="604" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A604" t="s">
-        <v>705</v>
+        <v>693</v>
       </c>
       <c r="B604">
         <v>42944.732929108999</v>
@@ -9348,7 +9271,7 @@
     </row>
     <row r="605" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A605" t="s">
-        <v>706</v>
+        <v>694</v>
       </c>
       <c r="B605">
         <v>37046.777658188701</v>
@@ -9356,7 +9279,7 @@
     </row>
     <row r="606" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A606" t="s">
-        <v>707</v>
+        <v>695</v>
       </c>
       <c r="B606">
         <v>36669.082055032603</v>
@@ -9364,7 +9287,7 @@
     </row>
     <row r="607" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A607" t="s">
-        <v>708</v>
+        <v>696</v>
       </c>
       <c r="B607">
         <v>44295.610445037499</v>
@@ -9372,7 +9295,7 @@
     </row>
     <row r="608" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A608" t="s">
-        <v>709</v>
+        <v>697</v>
       </c>
       <c r="B608">
         <v>10552.1180902789</v>
@@ -9380,7 +9303,7 @@
     </row>
     <row r="609" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A609" t="s">
-        <v>710</v>
+        <v>698</v>
       </c>
       <c r="B609">
         <v>27550.362652859101</v>
@@ -9388,7 +9311,7 @@
     </row>
     <row r="610" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A610" t="s">
-        <v>711</v>
+        <v>699</v>
       </c>
       <c r="B610">
         <v>29779.933376252098</v>
@@ -9396,7 +9319,7 @@
     </row>
     <row r="611" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A611" t="s">
-        <v>712</v>
+        <v>700</v>
       </c>
       <c r="B611">
         <v>24777.981397854401</v>
@@ -9404,7 +9327,7 @@
     </row>
     <row r="612" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A612" t="s">
-        <v>713</v>
+        <v>701</v>
       </c>
       <c r="B612">
         <v>22636.2936188641</v>
@@ -9412,7 +9335,7 @@
     </row>
     <row r="613" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A613" t="s">
-        <v>714</v>
+        <v>702</v>
       </c>
       <c r="B613">
         <v>31180.8076505682</v>
@@ -9420,7 +9343,7 @@
     </row>
     <row r="614" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A614" t="s">
-        <v>715</v>
+        <v>703</v>
       </c>
       <c r="B614">
         <v>27806.518371456201</v>
@@ -9428,7 +9351,7 @@
     </row>
     <row r="615" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A615" t="s">
-        <v>716</v>
+        <v>704</v>
       </c>
       <c r="B615">
         <v>46244.320286545</v>
@@ -9436,7 +9359,7 @@
     </row>
     <row r="616" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A616" t="s">
-        <v>717</v>
+        <v>705</v>
       </c>
       <c r="B616">
         <v>27504.166350922598</v>
@@ -9444,7 +9367,7 @@
     </row>
     <row r="617" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A617" t="s">
-        <v>718</v>
+        <v>706</v>
       </c>
       <c r="B617">
         <v>43361.896807462799</v>
@@ -9452,7 +9375,7 @@
     </row>
     <row r="618" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A618" t="s">
-        <v>719</v>
+        <v>707</v>
       </c>
       <c r="B618">
         <v>26983.675125518101</v>
@@ -9460,7 +9383,7 @@
     </row>
     <row r="619" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A619" t="s">
-        <v>720</v>
+        <v>708</v>
       </c>
       <c r="B619">
         <v>42102.123203173804</v>
@@ -9468,7 +9391,7 @@
     </row>
     <row r="620" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A620" t="s">
-        <v>721</v>
+        <v>709</v>
       </c>
       <c r="B620">
         <v>30676.548273870801</v>
@@ -9476,7 +9399,7 @@
     </row>
     <row r="621" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A621" t="s">
-        <v>722</v>
+        <v>710</v>
       </c>
       <c r="B621">
         <v>42572.425753480798</v>
@@ -9484,7 +9407,7 @@
     </row>
     <row r="622" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A622" t="s">
-        <v>723</v>
+        <v>711</v>
       </c>
       <c r="B622">
         <v>32096.664051756699</v>
@@ -9492,7 +9415,7 @@
     </row>
     <row r="623" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A623" t="s">
-        <v>724</v>
+        <v>712</v>
       </c>
       <c r="B623">
         <v>31910.3157497311</v>
@@ -9500,7 +9423,7 @@
     </row>
     <row r="624" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A624" t="s">
-        <v>725</v>
+        <v>713</v>
       </c>
       <c r="B624">
         <v>34452.533829476903</v>
@@ -9508,7 +9431,7 @@
     </row>
     <row r="625" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A625" t="s">
-        <v>726</v>
+        <v>714</v>
       </c>
       <c r="B625">
         <v>32918.101456571101</v>
@@ -9516,7 +9439,7 @@
     </row>
     <row r="626" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A626" t="s">
-        <v>727</v>
+        <v>715</v>
       </c>
       <c r="B626">
         <v>43389.154009046397</v>
@@ -9524,7 +9447,7 @@
     </row>
     <row r="627" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A627" t="s">
-        <v>728</v>
+        <v>716</v>
       </c>
       <c r="B627">
         <v>41988.744946922197</v>
@@ -9532,7 +9455,7 @@
     </row>
     <row r="628" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A628" t="s">
-        <v>729</v>
+        <v>717</v>
       </c>
       <c r="B628">
         <v>19784.549339819401</v>
@@ -9540,7 +9463,7 @@
     </row>
     <row r="629" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A629" t="s">
-        <v>730</v>
+        <v>718</v>
       </c>
       <c r="B629">
         <v>43972.495191330898</v>
@@ -9548,7 +9471,7 @@
     </row>
     <row r="630" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A630" t="s">
-        <v>731</v>
+        <v>719</v>
       </c>
       <c r="B630">
         <v>18941.9388989338</v>
@@ -9556,7 +9479,7 @@
     </row>
     <row r="631" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A631" t="s">
-        <v>732</v>
+        <v>720</v>
       </c>
       <c r="B631">
         <v>9908.08533459922</v>
@@ -9564,7 +9487,7 @@
     </row>
     <row r="632" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A632" t="s">
-        <v>733</v>
+        <v>721</v>
       </c>
       <c r="B632">
         <v>20008.425765281601</v>
@@ -9572,7 +9495,7 @@
     </row>
     <row r="633" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A633" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="B633">
         <v>17997.094223559401</v>
@@ -9580,7 +9503,7 @@
     </row>
     <row r="634" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A634" t="s">
-        <v>735</v>
+        <v>723</v>
       </c>
       <c r="B634">
         <v>23469.323682431001</v>
@@ -9588,7 +9511,7 @@
     </row>
     <row r="635" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A635" t="s">
-        <v>736</v>
+        <v>724</v>
       </c>
       <c r="B635">
         <v>19345.00660751</v>
@@ -9596,7 +9519,7 @@
     </row>
     <row r="636" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A636" t="s">
-        <v>737</v>
+        <v>725</v>
       </c>
       <c r="B636">
         <v>28795.222484783</v>
@@ -9604,7 +9527,7 @@
     </row>
     <row r="637" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A637" t="s">
-        <v>738</v>
+        <v>726</v>
       </c>
       <c r="B637">
         <v>43789.853149693401</v>
@@ -9612,7 +9535,7 @@
     </row>
     <row r="638" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A638" t="s">
-        <v>739</v>
+        <v>727</v>
       </c>
       <c r="B638">
         <v>13858.3137812072</v>
@@ -9620,7 +9543,7 @@
     </row>
     <row r="639" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A639" t="s">
-        <v>740</v>
+        <v>728</v>
       </c>
       <c r="B639">
         <v>48964.755231069998</v>
@@ -9628,7 +9551,7 @@
     </row>
     <row r="640" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A640" t="s">
-        <v>741</v>
+        <v>729</v>
       </c>
       <c r="B640">
         <v>42237.015828684001</v>
@@ -9636,7 +9559,7 @@
     </row>
     <row r="641" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A641" t="s">
-        <v>742</v>
+        <v>730</v>
       </c>
       <c r="B641">
         <v>26011.850978837501</v>
@@ -9644,7 +9567,7 @@
     </row>
     <row r="642" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A642" t="s">
-        <v>743</v>
+        <v>731</v>
       </c>
       <c r="B642">
         <v>15828.1397925532</v>
@@ -9652,7 +9575,7 @@
     </row>
     <row r="643" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A643" t="s">
-        <v>744</v>
+        <v>732</v>
       </c>
       <c r="B643">
         <v>15254.8235901593</v>
@@ -9660,7 +9583,7 @@
     </row>
     <row r="644" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A644" t="s">
-        <v>745</v>
+        <v>733</v>
       </c>
       <c r="B644">
         <v>42817.143424057802</v>
@@ -9668,7 +9591,7 @@
     </row>
     <row r="645" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A645" t="s">
-        <v>746</v>
+        <v>734</v>
       </c>
       <c r="B645">
         <v>19424.754057390201</v>
@@ -9676,7 +9599,7 @@
     </row>
     <row r="646" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A646" t="s">
-        <v>747</v>
+        <v>735</v>
       </c>
       <c r="B646">
         <v>10206.989338536499</v>
@@ -9684,7 +9607,7 @@
     </row>
     <row r="647" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A647" t="s">
-        <v>748</v>
+        <v>736</v>
       </c>
       <c r="B647">
         <v>42897.045693188498</v>
@@ -9692,7 +9615,7 @@
     </row>
     <row r="648" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A648" t="s">
-        <v>749</v>
+        <v>737</v>
       </c>
       <c r="B648">
         <v>43135.7256459899</v>
@@ -9700,7 +9623,7 @@
     </row>
     <row r="649" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A649" t="s">
-        <v>750</v>
+        <v>738</v>
       </c>
       <c r="B649">
         <v>28031.8723246316</v>
@@ -9708,7 +9631,7 @@
     </row>
     <row r="650" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A650" t="s">
-        <v>751</v>
+        <v>739</v>
       </c>
       <c r="B650">
         <v>32182.615756484702</v>
@@ -9716,7 +9639,7 @@
     </row>
     <row r="651" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A651" t="s">
-        <v>752</v>
+        <v>740</v>
       </c>
       <c r="B651">
         <v>41644.0597166847</v>
@@ -9724,7 +9647,7 @@
     </row>
     <row r="652" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A652" t="s">
-        <v>753</v>
+        <v>741</v>
       </c>
       <c r="B652">
         <v>43516.267016824801</v>
@@ -9732,7 +9655,7 @@
     </row>
     <row r="653" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A653" t="s">
-        <v>754</v>
+        <v>742</v>
       </c>
       <c r="B653">
         <v>29500.344335356502</v>
@@ -9740,7 +9663,7 @@
     </row>
     <row r="654" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A654" t="s">
-        <v>755</v>
+        <v>743</v>
       </c>
       <c r="B654">
         <v>30909.855872806402</v>
@@ -9748,7 +9671,7 @@
     </row>
     <row r="655" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A655" t="s">
-        <v>756</v>
+        <v>744</v>
       </c>
       <c r="B655">
         <v>28582.022950194601</v>
@@ -9756,7 +9679,7 @@
     </row>
     <row r="656" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A656" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="B656">
         <v>31393.1871376938</v>
@@ -9764,7 +9687,7 @@
     </row>
     <row r="657" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A657" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
       <c r="B657">
         <v>26587.809027271302</v>
@@ -9772,7 +9695,7 @@
     </row>
     <row r="658" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A658" t="s">
-        <v>759</v>
+        <v>747</v>
       </c>
       <c r="B658">
         <v>37176.3929642328</v>
@@ -9780,7 +9703,7 @@
     </row>
     <row r="659" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A659" t="s">
-        <v>760</v>
+        <v>748</v>
       </c>
       <c r="B659">
         <v>30395.856796941101</v>
@@ -9788,7 +9711,7 @@
     </row>
     <row r="660" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A660" t="s">
-        <v>761</v>
+        <v>749</v>
       </c>
       <c r="B660">
         <v>42829.030952218098</v>
@@ -9796,7 +9719,7 @@
     </row>
     <row r="661" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A661" t="s">
-        <v>762</v>
+        <v>750</v>
       </c>
       <c r="B661">
         <v>41214.365145117503</v>
@@ -9804,7 +9727,7 @@
     </row>
     <row r="662" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A662" t="s">
-        <v>763</v>
+        <v>751</v>
       </c>
       <c r="B662">
         <v>10335.9065833969</v>
@@ -9812,7 +9735,7 @@
     </row>
     <row r="663" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A663" t="s">
-        <v>764</v>
+        <v>752</v>
       </c>
       <c r="B663">
         <v>40465.631995978503</v>
@@ -9820,7 +9743,7 @@
     </row>
     <row r="664" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A664" t="s">
-        <v>765</v>
+        <v>753</v>
       </c>
       <c r="B664">
         <v>31094.774596272</v>
@@ -9828,7 +9751,7 @@
     </row>
     <row r="665" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A665" t="s">
-        <v>766</v>
+        <v>754</v>
       </c>
       <c r="B665">
         <v>16767.4460349867</v>
@@ -9836,7 +9759,7 @@
     </row>
     <row r="666" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A666" t="s">
-        <v>767</v>
+        <v>755</v>
       </c>
       <c r="B666">
         <v>28020.665288824901</v>
@@ -9844,7 +9767,7 @@
     </row>
     <row r="667" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A667" t="s">
-        <v>768</v>
+        <v>756</v>
       </c>
       <c r="B667">
         <v>22291.3980296933</v>
@@ -9852,7 +9775,7 @@
     </row>
     <row r="668" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A668" t="s">
-        <v>769</v>
+        <v>757</v>
       </c>
       <c r="B668">
         <v>9127.9394788337195</v>
@@ -9860,7 +9783,7 @@
     </row>
     <row r="669" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A669" t="s">
-        <v>770</v>
+        <v>758</v>
       </c>
       <c r="B669">
         <v>28702.1769570291</v>
@@ -9868,7 +9791,7 @@
     </row>
     <row r="670" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A670" t="s">
-        <v>771</v>
+        <v>759</v>
       </c>
       <c r="B670">
         <v>28575.2929961068</v>
@@ -9876,7 +9799,7 @@
     </row>
     <row r="671" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A671" t="s">
-        <v>772</v>
+        <v>760</v>
       </c>
       <c r="B671">
         <v>41208.976095356498</v>
@@ -9884,7 +9807,7 @@
     </row>
     <row r="672" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A672" t="s">
-        <v>773</v>
+        <v>761</v>
       </c>
       <c r="B672">
         <v>45447.099257110203</v>
@@ -9892,7 +9815,7 @@
     </row>
     <row r="673" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A673" t="s">
-        <v>774</v>
+        <v>762</v>
       </c>
       <c r="B673">
         <v>13479.2000018869</v>
@@ -9900,7 +9823,7 @@
     </row>
     <row r="674" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A674" t="s">
-        <v>775</v>
+        <v>763</v>
       </c>
       <c r="B674">
         <v>42078.6779364912</v>
@@ -9908,7 +9831,7 @@
     </row>
     <row r="675" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A675" t="s">
-        <v>776</v>
+        <v>764</v>
       </c>
       <c r="B675">
         <v>14115.9644468937</v>
@@ -9916,7 +9839,7 @@
     </row>
     <row r="676" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A676" t="s">
-        <v>777</v>
+        <v>765</v>
       </c>
       <c r="B676">
         <v>18754.811527259699</v>
@@ -9924,7 +9847,7 @@
     </row>
     <row r="677" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A677" t="s">
-        <v>778</v>
+        <v>766</v>
       </c>
       <c r="B677">
         <v>15272.0740681117</v>
@@ -9932,7 +9855,7 @@
     </row>
     <row r="678" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A678" t="s">
-        <v>779</v>
+        <v>767</v>
       </c>
       <c r="B678">
         <v>24698.0702098603</v>
@@ -9940,7 +9863,7 @@
     </row>
     <row r="679" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A679" t="s">
-        <v>780</v>
+        <v>768</v>
       </c>
       <c r="B679">
         <v>13483.372439467101</v>
@@ -9948,7 +9871,7 @@
     </row>
     <row r="680" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A680" t="s">
-        <v>781</v>
+        <v>769</v>
       </c>
       <c r="B680">
         <v>49598.206983379801</v>
@@ -9956,7 +9879,7 @@
     </row>
     <row r="681" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A681" t="s">
-        <v>782</v>
+        <v>770</v>
       </c>
       <c r="B681">
         <v>18583.0592325117</v>
@@ -9964,7 +9887,7 @@
     </row>
     <row r="682" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A682" t="s">
-        <v>783</v>
+        <v>771</v>
       </c>
       <c r="B682">
         <v>23461.0568664067</v>
@@ -9972,7 +9895,7 @@
     </row>
     <row r="683" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A683" t="s">
-        <v>784</v>
+        <v>772</v>
       </c>
       <c r="B683">
         <v>37249.235465901198</v>
@@ -9980,7 +9903,7 @@
     </row>
     <row r="684" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A684" t="s">
-        <v>785</v>
+        <v>773</v>
       </c>
       <c r="B684">
         <v>41276.197146643397</v>
@@ -9988,7 +9911,7 @@
     </row>
     <row r="685" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A685" t="s">
-        <v>786</v>
+        <v>774</v>
       </c>
       <c r="B685">
         <v>44881.086315064204</v>
@@ -9996,7 +9919,7 @@
     </row>
     <row r="686" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A686" t="s">
-        <v>787</v>
+        <v>775</v>
       </c>
       <c r="B686">
         <v>14929.8424707342</v>
@@ -10004,7 +9927,7 @@
     </row>
     <row r="687" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A687" t="s">
-        <v>788</v>
+        <v>776</v>
       </c>
       <c r="B687">
         <v>40628.0263301382</v>
@@ -10012,7 +9935,7 @@
     </row>
     <row r="688" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A688" t="s">
-        <v>789</v>
+        <v>777</v>
       </c>
       <c r="B688">
         <v>31499.800084380899</v>
@@ -10020,7 +9943,7 @@
     </row>
     <row r="689" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A689" t="s">
-        <v>790</v>
+        <v>778</v>
       </c>
       <c r="B689">
         <v>37569.387858485599</v>
@@ -10028,7 +9951,7 @@
     </row>
     <row r="690" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A690" t="s">
-        <v>791</v>
+        <v>779</v>
       </c>
       <c r="B690">
         <v>44027.057670110502</v>
@@ -10036,7 +9959,7 @@
     </row>
     <row r="691" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A691" t="s">
-        <v>792</v>
+        <v>780</v>
       </c>
       <c r="B691">
         <v>42831.967711803904</v>
@@ -10044,7 +9967,7 @@
     </row>
     <row r="692" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A692" t="s">
-        <v>793</v>
+        <v>781</v>
       </c>
       <c r="B692">
         <v>31699.773540136299</v>
@@ -10052,7 +9975,7 @@
     </row>
     <row r="693" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A693" t="s">
-        <v>794</v>
+        <v>782</v>
       </c>
       <c r="B693">
         <v>43475.609829967099</v>
@@ -10060,7 +9983,7 @@
     </row>
     <row r="694" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A694" t="s">
-        <v>795</v>
+        <v>783</v>
       </c>
       <c r="B694">
         <v>40660.856363827799</v>
@@ -10068,7 +9991,7 @@
     </row>
     <row r="695" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A695" t="s">
-        <v>796</v>
+        <v>784</v>
       </c>
       <c r="B695">
         <v>46922.780658326701</v>
@@ -10076,7 +9999,7 @@
     </row>
     <row r="696" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A696" t="s">
-        <v>797</v>
+        <v>785</v>
       </c>
       <c r="B696">
         <v>15057.796798790199</v>
@@ -10084,7 +10007,7 @@
     </row>
     <row r="697" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A697" t="s">
-        <v>798</v>
+        <v>786</v>
       </c>
       <c r="B697">
         <v>10665.4287904625</v>
@@ -10092,7 +10015,7 @@
     </row>
     <row r="698" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A698" t="s">
-        <v>799</v>
+        <v>787</v>
       </c>
       <c r="B698">
         <v>31903.389295283399</v>
@@ -10100,7 +10023,7 @@
     </row>
     <row r="699" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A699" t="s">
-        <v>800</v>
+        <v>788</v>
       </c>
       <c r="B699">
         <v>46685.501893390297</v>
@@ -10108,7 +10031,7 @@
     </row>
     <row r="700" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A700" t="s">
-        <v>801</v>
+        <v>789</v>
       </c>
       <c r="B700">
         <v>30851.998539844299</v>
@@ -10116,7 +10039,7 @@
     </row>
     <row r="701" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A701" t="s">
-        <v>802</v>
+        <v>790</v>
       </c>
       <c r="B701">
         <v>40512.236563711798</v>
